--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_24_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_24_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1187694.313311428</v>
+        <v>1183188.902742508</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7358758.424792559</v>
+        <v>7358758.424792563</v>
       </c>
     </row>
     <row r="9">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>72.37668613909848</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.3678272055618</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>331.5048048094987</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.90452502067237</v>
+        <v>60.90452502067238</v>
       </c>
       <c r="T12" t="n">
         <v>136.2065070493723</v>
@@ -1533,7 +1533,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.778005649686236</v>
+        <v>6.77800564968625</v>
       </c>
       <c r="S13" t="n">
-        <v>153.01156706812</v>
+        <v>153.0115670681201</v>
       </c>
       <c r="T13" t="n">
-        <v>237.124837410167</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3343344374282</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>145.3881780427083</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>166.0143982174822</v>
       </c>
     </row>
     <row r="14">
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>136.5349765539061</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3228448427254</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>155.701672004114</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.3678272055618</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>50.52280675839854</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7094577587503</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.4903647118297</v>
       </c>
       <c r="I16" t="n">
-        <v>72.15825564197092</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.778005649686236</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>153.0115670681201</v>
@@ -1821,7 +1821,7 @@
         <v>237.124837410167</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3343344374282</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1830,10 +1830,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>45.20621415321909</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>404.2386153190166</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>371.8462450797647</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2004,16 +2004,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>8.757933390328835</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.778005649686236</v>
+        <v>3.891701312772025</v>
       </c>
       <c r="S19" t="n">
-        <v>153.0115670681201</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.124837410167</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3228448427254</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.6854808033287</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.3678272055618</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>165.6779951056927</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.0501767351469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26.76940492540028</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>40.05592419568762</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.778005649686236</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>153.0115670681201</v>
       </c>
       <c r="T22" t="n">
-        <v>237.124837410167</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3343344374282</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2320,7 +2320,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.3228448427254</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>139.7337688991505</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>7.639702046820566</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>130.5246458806122</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2487,16 +2487,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>134.4903647118297</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>28.29455709550163</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.778005649686243</v>
+        <v>6.77800564968625</v>
       </c>
       <c r="S25" t="n">
         <v>153.0115670681201</v>
       </c>
       <c r="T25" t="n">
-        <v>237.124837410167</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3343344374282</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>180.4945392153166</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.3228448427254</v>
       </c>
       <c r="H26" t="n">
         <v>274.6854808033287</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>284.5034517074968</v>
       </c>
     </row>
     <row r="27">
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.36643761991048</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.4903647118297</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>44.41072516168391</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2794,22 +2794,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>333.5948767909035</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.36782720556181</v>
       </c>
       <c r="T29" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>57.73387623938179</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>8.648252383640424</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.4903647118297</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.77800564968625</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>153.0115670681201</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>138.1393175602233</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>361.1416874283084</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>166.9866866020953</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.36782720556181</v>
       </c>
       <c r="T32" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>255.6135341540542</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.22895626408837</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>73.8868024182396</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.77800564968625</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>153.0115670681201</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.124837410167</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3268,22 +3268,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>85.54165439176785</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>349.4079650696283</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.36782720556181</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.4610194678126</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>72.55492792875545</v>
       </c>
       <c r="I37" t="n">
-        <v>72.15825564197092</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>6.77800564968625</v>
       </c>
       <c r="S37" t="n">
-        <v>153.0115670681201</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.124837410167</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3343344374282</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>282.4569514387754</v>
       </c>
       <c r="D38" t="n">
-        <v>144.0561478607718</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3228448427254</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>274.6854808033287</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>123.9428283496295</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3678,7 +3678,7 @@
         <v>163.7094577587503</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.4903647118297</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.77800564968625</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>153.0115670681201</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.124837410167</v>
@@ -3720,13 +3720,13 @@
         <v>277.3343344374282</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>74.37156361731979</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>213.3641859176003</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.3678272055618</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>210.080265299677</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>352.2852262863068</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3906,19 +3906,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>107.6369284591946</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.4903647118297</v>
       </c>
       <c r="I43" t="n">
-        <v>72.15825564197092</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.778005649686236</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>153.0115670681201</v>
@@ -3954,19 +3954,19 @@
         <v>237.124837410167</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3343344374282</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>180.5731784448685</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>28.07297515578322</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>152.5006859001079</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,25 +4137,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H46" t="n">
         <v>134.4903647118297</v>
       </c>
       <c r="I46" t="n">
-        <v>72.15825564197092</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>6.778005649686236</v>
       </c>
       <c r="S46" t="n">
-        <v>153.0115670681201</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>47.69370178538338</v>
+        <v>237.124837410167</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3343344374282</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>163.4540563089563</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>894.4209120897535</v>
+        <v>1170.95720357472</v>
       </c>
       <c r="C11" t="n">
-        <v>467.5201821030536</v>
+        <v>1170.95720357472</v>
       </c>
       <c r="D11" t="n">
-        <v>467.5201821030536</v>
+        <v>1170.95720357472</v>
       </c>
       <c r="E11" t="n">
-        <v>467.5201821030536</v>
+        <v>744.9802637225775</v>
       </c>
       <c r="F11" t="n">
-        <v>42.39600029245376</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="G11" t="n">
-        <v>42.39600029245376</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="H11" t="n">
         <v>42.39600029245376</v>
       </c>
       <c r="I11" t="n">
-        <v>83.49041341423344</v>
+        <v>83.4904134142339</v>
       </c>
       <c r="J11" t="n">
-        <v>220.1314621299484</v>
+        <v>220.1314621299489</v>
       </c>
       <c r="K11" t="n">
-        <v>433.1659828319414</v>
+        <v>433.1659828319417</v>
       </c>
       <c r="L11" t="n">
-        <v>703.4506798655941</v>
+        <v>703.4506798655942</v>
       </c>
       <c r="M11" t="n">
         <v>1009.34076718589</v>
@@ -5068,25 +5068,25 @@
         <v>2119.800014622688</v>
       </c>
       <c r="S11" t="n">
-        <v>2060.842613404949</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="T11" t="n">
-        <v>2060.842613404949</v>
+        <v>1907.597726441196</v>
       </c>
       <c r="U11" t="n">
-        <v>2060.842613404949</v>
+        <v>1649.402237396697</v>
       </c>
       <c r="V11" t="n">
-        <v>2060.842613404949</v>
+        <v>1649.402237396697</v>
       </c>
       <c r="W11" t="n">
-        <v>2060.842613404949</v>
+        <v>1649.402237396697</v>
       </c>
       <c r="X11" t="n">
-        <v>1649.122614572696</v>
+        <v>1649.402237396697</v>
       </c>
       <c r="Y11" t="n">
-        <v>1314.269276381284</v>
+        <v>1244.064967351587</v>
       </c>
     </row>
     <row r="12">
@@ -5117,16 +5117,16 @@
         <v>42.39600029245376</v>
       </c>
       <c r="I12" t="n">
-        <v>62.36450125466525</v>
+        <v>62.36450125466523</v>
       </c>
       <c r="J12" t="n">
-        <v>140.6890736543379</v>
+        <v>415.7924924818273</v>
       </c>
       <c r="K12" t="n">
-        <v>287.2584022575217</v>
+        <v>562.361821085011</v>
       </c>
       <c r="L12" t="n">
-        <v>491.8663652808091</v>
+        <v>766.9697841082984</v>
       </c>
       <c r="M12" t="n">
         <v>1008.883117300327</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>790.6887590424079</v>
+        <v>954.0055319156372</v>
       </c>
       <c r="C13" t="n">
-        <v>618.7161959213239</v>
+        <v>782.0329687945532</v>
       </c>
       <c r="D13" t="n">
         <v>618.7161959213239</v>
@@ -5199,25 +5199,25 @@
         <v>42.39600029245376</v>
       </c>
       <c r="J13" t="n">
-        <v>83.90537476982985</v>
+        <v>161.8270914180507</v>
       </c>
       <c r="K13" t="n">
-        <v>412.2190335660476</v>
+        <v>242.8581411002463</v>
       </c>
       <c r="L13" t="n">
-        <v>897.1594648630571</v>
+        <v>405.445344342834</v>
       </c>
       <c r="M13" t="n">
-        <v>1421.809968482172</v>
+        <v>930.0958479619493</v>
       </c>
       <c r="N13" t="n">
-        <v>1885.45255829268</v>
+        <v>1043.620532038271</v>
       </c>
       <c r="O13" t="n">
-        <v>1987.01010159062</v>
+        <v>1522.880399639414</v>
       </c>
       <c r="P13" t="n">
-        <v>2070.812554180405</v>
+        <v>1919.439056802506</v>
       </c>
       <c r="Q13" t="n">
         <v>2119.800014622688</v>
@@ -5229,22 +5229,22 @@
         <v>1958.396405816823</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.876368028776</v>
+        <v>1958.396405816823</v>
       </c>
       <c r="U13" t="n">
-        <v>1438.740676677838</v>
+        <v>1678.260714465885</v>
       </c>
       <c r="V13" t="n">
-        <v>1438.740676677838</v>
+        <v>1396.549247073914</v>
       </c>
       <c r="W13" t="n">
-        <v>1163.888272850351</v>
+        <v>1121.696843246427</v>
       </c>
       <c r="X13" t="n">
-        <v>1017.031527352666</v>
+        <v>1121.696843246427</v>
       </c>
       <c r="Y13" t="n">
-        <v>790.6887590424079</v>
+        <v>954.0055319156372</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1025.30934519517</v>
+        <v>882.8943814537959</v>
       </c>
       <c r="C14" t="n">
-        <v>1025.30934519517</v>
+        <v>882.8943814537959</v>
       </c>
       <c r="D14" t="n">
-        <v>602.0167243801704</v>
+        <v>882.8943814537959</v>
       </c>
       <c r="E14" t="n">
-        <v>602.0167243801704</v>
+        <v>744.9802637225775</v>
       </c>
       <c r="F14" t="n">
-        <v>602.0167243801704</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="G14" t="n">
-        <v>199.6704164582255</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="H14" t="n">
-        <v>42.39600029245378</v>
+        <v>42.39600029245376</v>
       </c>
       <c r="I14" t="n">
-        <v>83.4904134142339</v>
+        <v>83.49041341423367</v>
       </c>
       <c r="J14" t="n">
-        <v>220.1314621299491</v>
+        <v>220.1314621299484</v>
       </c>
       <c r="K14" t="n">
-        <v>433.1659828319421</v>
+        <v>433.1659828319415</v>
       </c>
       <c r="L14" t="n">
-        <v>703.4506798655948</v>
+        <v>703.4506798655941</v>
       </c>
       <c r="M14" t="n">
-        <v>1009.340767185891</v>
+        <v>1009.34076718589</v>
       </c>
       <c r="N14" t="n">
-        <v>1320.93021977883</v>
+        <v>1320.930219778829</v>
       </c>
       <c r="O14" t="n">
-        <v>1612.988324273003</v>
+        <v>1612.988324273002</v>
       </c>
       <c r="P14" t="n">
-        <v>1856.646746816144</v>
+        <v>1856.646746816143</v>
       </c>
       <c r="Q14" t="n">
-        <v>2031.796003420094</v>
+        <v>2031.796003420093</v>
       </c>
       <c r="R14" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="S14" t="n">
-        <v>2060.84261340495</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="T14" t="n">
-        <v>2060.84261340495</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="U14" t="n">
-        <v>1802.647124360451</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="V14" t="n">
-        <v>1445.1577094867</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="W14" t="n">
-        <v>1445.1577094867</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="X14" t="n">
-        <v>1445.1577094867</v>
+        <v>1708.080015790435</v>
       </c>
       <c r="Y14" t="n">
-        <v>1445.1577094867</v>
+        <v>1302.742745745326</v>
       </c>
     </row>
     <row r="15">
@@ -5348,34 +5348,34 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G15" t="n">
-        <v>85.47467570705001</v>
+        <v>85.47467570704998</v>
       </c>
       <c r="H15" t="n">
-        <v>42.39600029245378</v>
+        <v>42.39600029245376</v>
       </c>
       <c r="I15" t="n">
-        <v>62.36450125466526</v>
+        <v>62.36450125466524</v>
       </c>
       <c r="J15" t="n">
-        <v>140.6890736543379</v>
+        <v>140.6890736543378</v>
       </c>
       <c r="K15" t="n">
-        <v>287.2584022575217</v>
+        <v>287.2584022575215</v>
       </c>
       <c r="L15" t="n">
-        <v>766.969784108298</v>
+        <v>491.866365280809</v>
       </c>
       <c r="M15" t="n">
-        <v>1008.883117300327</v>
+        <v>733.7796984728375</v>
       </c>
       <c r="N15" t="n">
-        <v>1259.540581385168</v>
+        <v>984.437162557679</v>
       </c>
       <c r="O15" t="n">
-        <v>1485.232474392533</v>
+        <v>1210.129055565044</v>
       </c>
       <c r="P15" t="n">
-        <v>1663.228492615173</v>
+        <v>1388.125073787684</v>
       </c>
       <c r="Q15" t="n">
         <v>1774.102247579974</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>610.1711945691137</v>
+        <v>736.4291018962756</v>
       </c>
       <c r="C16" t="n">
-        <v>610.1711945691137</v>
+        <v>564.4565387751916</v>
       </c>
       <c r="D16" t="n">
-        <v>446.8544216958844</v>
+        <v>401.1397659019623</v>
       </c>
       <c r="E16" t="n">
-        <v>280.6462158487379</v>
+        <v>350.1066277621658</v>
       </c>
       <c r="F16" t="n">
-        <v>280.6462158487379</v>
+        <v>178.2448535367262</v>
       </c>
       <c r="G16" t="n">
-        <v>115.2831272035355</v>
+        <v>178.2448535367262</v>
       </c>
       <c r="H16" t="n">
-        <v>115.2831272035355</v>
+        <v>42.39600029245376</v>
       </c>
       <c r="I16" t="n">
-        <v>42.39600029245378</v>
+        <v>42.39600029245376</v>
       </c>
       <c r="J16" t="n">
         <v>161.8270914180507</v>
@@ -5442,46 +5442,46 @@
         <v>490.1407502142685</v>
       </c>
       <c r="L16" t="n">
-        <v>598.692287920113</v>
+        <v>975.0811815112779</v>
       </c>
       <c r="M16" t="n">
-        <v>1123.342791539229</v>
+        <v>1499.731685130393</v>
       </c>
       <c r="N16" t="n">
-        <v>1634.90039845743</v>
+        <v>1885.45255829268</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.636604212722</v>
+        <v>1987.01010159062</v>
       </c>
       <c r="P16" t="n">
-        <v>1919.439056802506</v>
+        <v>2070.812554180405</v>
       </c>
       <c r="Q16" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="R16" t="n">
-        <v>2112.953544269471</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="S16" t="n">
-        <v>1958.396405816824</v>
+        <v>1965.242876170042</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.876368028777</v>
+        <v>1725.722838381994</v>
       </c>
       <c r="U16" t="n">
-        <v>1438.740676677839</v>
+        <v>1725.722838381994</v>
       </c>
       <c r="V16" t="n">
-        <v>1157.029209285868</v>
+        <v>1444.011370990023</v>
       </c>
       <c r="W16" t="n">
-        <v>882.1768054583808</v>
+        <v>1169.158967162536</v>
       </c>
       <c r="X16" t="n">
-        <v>836.5139628793717</v>
+        <v>926.5950706083412</v>
       </c>
       <c r="Y16" t="n">
-        <v>610.1711945691137</v>
+        <v>926.5950706083412</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>841.2908888647917</v>
+        <v>894.4209120897535</v>
       </c>
       <c r="C17" t="n">
-        <v>841.2908888647917</v>
+        <v>467.5201821030536</v>
       </c>
       <c r="D17" t="n">
-        <v>417.9982680497919</v>
+        <v>467.5201821030536</v>
       </c>
       <c r="E17" t="n">
-        <v>417.9982680497919</v>
+        <v>467.5201821030536</v>
       </c>
       <c r="F17" t="n">
-        <v>417.9982680497919</v>
+        <v>42.39600029245376</v>
       </c>
       <c r="G17" t="n">
-        <v>42.39600029245377</v>
+        <v>42.39600029245376</v>
       </c>
       <c r="H17" t="n">
-        <v>42.39600029245377</v>
+        <v>42.39600029245376</v>
       </c>
       <c r="I17" t="n">
-        <v>83.49041341423379</v>
+        <v>83.4904134142339</v>
       </c>
       <c r="J17" t="n">
-        <v>220.1314621299487</v>
+        <v>220.1314621299488</v>
       </c>
       <c r="K17" t="n">
-        <v>433.1659828319416</v>
+        <v>433.1659828319417</v>
       </c>
       <c r="L17" t="n">
         <v>703.4506798655942</v>
@@ -5527,40 +5527,40 @@
         <v>1009.34076718589</v>
       </c>
       <c r="N17" t="n">
-        <v>1320.93021977883</v>
+        <v>1320.930219778829</v>
       </c>
       <c r="O17" t="n">
-        <v>1612.988324273003</v>
+        <v>1612.988324273002</v>
       </c>
       <c r="P17" t="n">
-        <v>1856.646746816144</v>
+        <v>1856.646746816143</v>
       </c>
       <c r="Q17" t="n">
-        <v>2031.796003420094</v>
+        <v>2031.796003420093</v>
       </c>
       <c r="R17" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="S17" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="T17" t="n">
-        <v>1907.597726441197</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="U17" t="n">
-        <v>1649.402237396698</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="V17" t="n">
-        <v>1649.402237396698</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="W17" t="n">
-        <v>1253.010887697044</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="X17" t="n">
-        <v>841.2908888647917</v>
+        <v>1708.080015790435</v>
       </c>
       <c r="Y17" t="n">
-        <v>841.2908888647917</v>
+        <v>1302.742745745326</v>
       </c>
     </row>
     <row r="18">
@@ -5585,31 +5585,31 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G18" t="n">
-        <v>85.47467570705</v>
+        <v>85.47467570704998</v>
       </c>
       <c r="H18" t="n">
-        <v>42.39600029245377</v>
+        <v>42.39600029245376</v>
       </c>
       <c r="I18" t="n">
-        <v>62.36450125466525</v>
+        <v>85.82180709907708</v>
       </c>
       <c r="J18" t="n">
-        <v>140.6890736543379</v>
+        <v>164.1463794987497</v>
       </c>
       <c r="K18" t="n">
-        <v>287.2584022575217</v>
+        <v>310.7157081019334</v>
       </c>
       <c r="L18" t="n">
-        <v>766.969784108298</v>
+        <v>515.3236711252208</v>
       </c>
       <c r="M18" t="n">
-        <v>1008.883117300327</v>
+        <v>757.2370043172493</v>
       </c>
       <c r="N18" t="n">
-        <v>1259.540581385168</v>
+        <v>1007.894468402091</v>
       </c>
       <c r="O18" t="n">
-        <v>1485.232474392533</v>
+        <v>1233.586361409456</v>
       </c>
       <c r="P18" t="n">
         <v>1663.228492615173</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>223.1041718818619</v>
+        <v>380.5767692606842</v>
       </c>
       <c r="C19" t="n">
-        <v>223.1041718818619</v>
+        <v>208.6042061396002</v>
       </c>
       <c r="D19" t="n">
-        <v>223.1041718818619</v>
+        <v>208.6042061396002</v>
       </c>
       <c r="E19" t="n">
-        <v>214.2577745178934</v>
+        <v>42.39600029245376</v>
       </c>
       <c r="F19" t="n">
-        <v>42.39600029245377</v>
+        <v>42.39600029245376</v>
       </c>
       <c r="G19" t="n">
-        <v>42.39600029245377</v>
+        <v>42.39600029245376</v>
       </c>
       <c r="H19" t="n">
-        <v>42.39600029245377</v>
+        <v>42.39600029245376</v>
       </c>
       <c r="I19" t="n">
-        <v>42.39600029245377</v>
+        <v>42.39600029245376</v>
       </c>
       <c r="J19" t="n">
-        <v>161.8270914180507</v>
+        <v>83.90537476982985</v>
       </c>
       <c r="K19" t="n">
-        <v>242.8581411002464</v>
+        <v>412.2190335660476</v>
       </c>
       <c r="L19" t="n">
-        <v>351.4096788060909</v>
+        <v>897.1594648630571</v>
       </c>
       <c r="M19" t="n">
-        <v>876.0601824252063</v>
+        <v>1012.141312315003</v>
       </c>
       <c r="N19" t="n">
-        <v>1043.620532038271</v>
+        <v>1523.698919233205</v>
       </c>
       <c r="O19" t="n">
-        <v>1522.880399639414</v>
+        <v>1674.253897017313</v>
       </c>
       <c r="P19" t="n">
-        <v>1919.439056802506</v>
+        <v>2070.812554180405</v>
       </c>
       <c r="Q19" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="R19" t="n">
-        <v>2112.95354426947</v>
+        <v>2115.869003195646</v>
       </c>
       <c r="S19" t="n">
-        <v>1958.396405816824</v>
+        <v>2115.869003195646</v>
       </c>
       <c r="T19" t="n">
-        <v>1718.876368028776</v>
+        <v>1876.348965407598</v>
       </c>
       <c r="U19" t="n">
-        <v>1438.740676677839</v>
+        <v>1596.213274056661</v>
       </c>
       <c r="V19" t="n">
-        <v>1157.029209285867</v>
+        <v>1314.50180666469</v>
       </c>
       <c r="W19" t="n">
-        <v>882.1768054583804</v>
+        <v>1039.649402837203</v>
       </c>
       <c r="X19" t="n">
-        <v>639.6129089041855</v>
+        <v>797.0855062830078</v>
       </c>
       <c r="Y19" t="n">
-        <v>413.2701405939275</v>
+        <v>570.7427379727499</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1573.303511496665</v>
+        <v>1320.397851941896</v>
       </c>
       <c r="C20" t="n">
-        <v>1573.303511496665</v>
+        <v>893.497121955196</v>
       </c>
       <c r="D20" t="n">
-        <v>1573.303511496665</v>
+        <v>893.497121955196</v>
       </c>
       <c r="E20" t="n">
-        <v>1147.326571644523</v>
+        <v>467.5201821030536</v>
       </c>
       <c r="F20" t="n">
-        <v>722.2023898339227</v>
+        <v>42.39600029245376</v>
       </c>
       <c r="G20" t="n">
-        <v>319.8560819119778</v>
+        <v>42.39600029245376</v>
       </c>
       <c r="H20" t="n">
         <v>42.39600029245376</v>
       </c>
       <c r="I20" t="n">
-        <v>83.49041341423379</v>
+        <v>83.4904134142339</v>
       </c>
       <c r="J20" t="n">
         <v>220.1314621299487</v>
@@ -5758,7 +5758,7 @@
         <v>433.1659828319416</v>
       </c>
       <c r="L20" t="n">
-        <v>703.4506798655942</v>
+        <v>703.4506798655941</v>
       </c>
       <c r="M20" t="n">
         <v>1009.34076718589</v>
@@ -5767,10 +5767,10 @@
         <v>1320.930219778829</v>
       </c>
       <c r="O20" t="n">
-        <v>1612.988324273002</v>
+        <v>1612.988324273003</v>
       </c>
       <c r="P20" t="n">
-        <v>1856.646746816143</v>
+        <v>1856.646746816144</v>
       </c>
       <c r="Q20" t="n">
         <v>2031.796003420093</v>
@@ -5779,25 +5779,25 @@
         <v>2119.800014622688</v>
       </c>
       <c r="S20" t="n">
-        <v>2060.842613404949</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="T20" t="n">
-        <v>2060.842613404949</v>
+        <v>1907.597726441196</v>
       </c>
       <c r="U20" t="n">
-        <v>1802.64712436045</v>
+        <v>1907.597726441196</v>
       </c>
       <c r="V20" t="n">
-        <v>1802.64712436045</v>
+        <v>1740.246216233426</v>
       </c>
       <c r="W20" t="n">
-        <v>1802.64712436045</v>
+        <v>1740.246216233426</v>
       </c>
       <c r="X20" t="n">
-        <v>1802.64712436045</v>
+        <v>1740.246216233426</v>
       </c>
       <c r="Y20" t="n">
-        <v>1573.303511496665</v>
+        <v>1740.246216233426</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>42.39600029245376</v>
       </c>
       <c r="I21" t="n">
-        <v>62.36450125466524</v>
+        <v>85.82180709907708</v>
       </c>
       <c r="J21" t="n">
-        <v>140.6890736543378</v>
+        <v>415.7924924818273</v>
       </c>
       <c r="K21" t="n">
-        <v>287.2584022575216</v>
+        <v>562.361821085011</v>
       </c>
       <c r="L21" t="n">
-        <v>491.8663652808091</v>
+        <v>766.9697841082984</v>
       </c>
       <c r="M21" t="n">
-        <v>733.7796984728377</v>
+        <v>1008.883117300327</v>
       </c>
       <c r="N21" t="n">
-        <v>984.4371625576794</v>
+        <v>1259.540581385168</v>
       </c>
       <c r="O21" t="n">
-        <v>1210.129055565044</v>
+        <v>1485.232474392533</v>
       </c>
       <c r="P21" t="n">
         <v>1663.228492615173</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>386.2303376389773</v>
+        <v>749.606371374065</v>
       </c>
       <c r="C22" t="n">
-        <v>214.2577745178933</v>
+        <v>709.1458418834715</v>
       </c>
       <c r="D22" t="n">
-        <v>214.2577745178933</v>
+        <v>545.8290690102422</v>
       </c>
       <c r="E22" t="n">
-        <v>214.2577745178933</v>
+        <v>379.6208631630957</v>
       </c>
       <c r="F22" t="n">
-        <v>42.39600029245376</v>
+        <v>207.7590889376561</v>
       </c>
       <c r="G22" t="n">
         <v>42.39600029245376</v>
@@ -5913,16 +5913,16 @@
         <v>161.8270914180507</v>
       </c>
       <c r="K22" t="n">
-        <v>242.8581411002464</v>
+        <v>490.1407502142684</v>
       </c>
       <c r="L22" t="n">
-        <v>727.7985723972558</v>
+        <v>783.1476686460372</v>
       </c>
       <c r="M22" t="n">
-        <v>930.0958479619491</v>
+        <v>1307.798172265153</v>
       </c>
       <c r="N22" t="n">
-        <v>1043.62053203827</v>
+        <v>1421.322856341474</v>
       </c>
       <c r="O22" t="n">
         <v>1522.880399639414</v>
@@ -5934,28 +5934,28 @@
         <v>2119.800014622688</v>
       </c>
       <c r="R22" t="n">
-        <v>2112.95354426947</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="S22" t="n">
-        <v>1958.396405816823</v>
+        <v>1965.242876170042</v>
       </c>
       <c r="T22" t="n">
-        <v>1718.876368028776</v>
+        <v>1965.242876170042</v>
       </c>
       <c r="U22" t="n">
-        <v>1438.740676677838</v>
+        <v>1965.242876170042</v>
       </c>
       <c r="V22" t="n">
-        <v>1157.029209285867</v>
+        <v>1683.53140877807</v>
       </c>
       <c r="W22" t="n">
-        <v>882.1768054583799</v>
+        <v>1408.679004950583</v>
       </c>
       <c r="X22" t="n">
-        <v>639.612908904185</v>
+        <v>1166.115108396389</v>
       </c>
       <c r="Y22" t="n">
-        <v>413.2701405939271</v>
+        <v>939.7723400861307</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>895.2736701312961</v>
+        <v>1295.843429877141</v>
       </c>
       <c r="C23" t="n">
-        <v>468.3729401445962</v>
+        <v>1295.843429877141</v>
       </c>
       <c r="D23" t="n">
-        <v>468.3729401445962</v>
+        <v>1295.843429877141</v>
       </c>
       <c r="E23" t="n">
-        <v>42.39600029245376</v>
+        <v>869.8664900249985</v>
       </c>
       <c r="F23" t="n">
-        <v>42.39600029245376</v>
+        <v>444.7423082143987</v>
       </c>
       <c r="G23" t="n">
         <v>42.39600029245376</v>
@@ -5995,7 +5995,7 @@
         <v>433.1659828319414</v>
       </c>
       <c r="L23" t="n">
-        <v>703.4506798655941</v>
+        <v>703.450679865594</v>
       </c>
       <c r="M23" t="n">
         <v>1009.34076718589</v>
@@ -6022,19 +6022,19 @@
         <v>2119.800014622688</v>
       </c>
       <c r="U23" t="n">
-        <v>1861.604525578189</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="V23" t="n">
-        <v>1861.604525578189</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="W23" t="n">
-        <v>1720.459304467936</v>
+        <v>1723.408664923035</v>
       </c>
       <c r="X23" t="n">
-        <v>1720.459304467936</v>
+        <v>1715.691794168671</v>
       </c>
       <c r="Y23" t="n">
-        <v>1315.122034422826</v>
+        <v>1715.691794168671</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>140.6890736543378</v>
       </c>
       <c r="K24" t="n">
-        <v>287.2584022575215</v>
+        <v>562.3618210850108</v>
       </c>
       <c r="L24" t="n">
-        <v>491.866365280809</v>
+        <v>766.9697841082982</v>
       </c>
       <c r="M24" t="n">
-        <v>733.7796984728376</v>
+        <v>1008.883117300327</v>
       </c>
       <c r="N24" t="n">
-        <v>984.4371625576792</v>
+        <v>1259.540581385168</v>
       </c>
       <c r="O24" t="n">
-        <v>1210.129055565044</v>
+        <v>1485.232474392533</v>
       </c>
       <c r="P24" t="n">
-        <v>1388.125073787684</v>
+        <v>1663.228492615173</v>
       </c>
       <c r="Q24" t="n">
         <v>1774.102247579974</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.612908904185</v>
+        <v>744.33567706188</v>
       </c>
       <c r="C25" t="n">
-        <v>507.7698322571019</v>
+        <v>572.363113940796</v>
       </c>
       <c r="D25" t="n">
-        <v>344.4530593838726</v>
+        <v>409.0463410675667</v>
       </c>
       <c r="E25" t="n">
-        <v>178.2448535367262</v>
+        <v>242.8381352204202</v>
       </c>
       <c r="F25" t="n">
-        <v>178.2448535367262</v>
+        <v>70.97636099498067</v>
       </c>
       <c r="G25" t="n">
-        <v>178.2448535367262</v>
+        <v>70.97636099498067</v>
       </c>
       <c r="H25" t="n">
-        <v>42.39600029245376</v>
+        <v>70.97636099498067</v>
       </c>
       <c r="I25" t="n">
         <v>42.39600029245376</v>
@@ -6153,13 +6153,13 @@
         <v>164.9364244520255</v>
       </c>
       <c r="L25" t="n">
-        <v>273.48796215787</v>
+        <v>385.1147458041569</v>
       </c>
       <c r="M25" t="n">
-        <v>532.0629251200688</v>
+        <v>909.7652494232722</v>
       </c>
       <c r="N25" t="n">
-        <v>1043.62053203827</v>
+        <v>1421.322856341474</v>
       </c>
       <c r="O25" t="n">
         <v>1522.880399639414</v>
@@ -6177,22 +6177,22 @@
         <v>1958.396405816823</v>
       </c>
       <c r="T25" t="n">
-        <v>1718.876368028776</v>
+        <v>1958.396405816823</v>
       </c>
       <c r="U25" t="n">
-        <v>1438.740676677838</v>
+        <v>1678.260714465885</v>
       </c>
       <c r="V25" t="n">
-        <v>1157.029209285867</v>
+        <v>1678.260714465885</v>
       </c>
       <c r="W25" t="n">
-        <v>882.1768054583799</v>
+        <v>1403.408310638398</v>
       </c>
       <c r="X25" t="n">
-        <v>639.612908904185</v>
+        <v>1160.844414084204</v>
       </c>
       <c r="Y25" t="n">
-        <v>639.612908904185</v>
+        <v>934.5016457739457</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1168.272884537577</v>
+        <v>1574.227301631222</v>
       </c>
       <c r="C26" t="n">
-        <v>1168.272884537577</v>
+        <v>1147.326571644523</v>
       </c>
       <c r="D26" t="n">
-        <v>744.9802637225775</v>
+        <v>1147.326571644523</v>
       </c>
       <c r="E26" t="n">
-        <v>744.9802637225775</v>
+        <v>1147.326571644523</v>
       </c>
       <c r="F26" t="n">
-        <v>319.8560819119778</v>
+        <v>722.2023898339227</v>
       </c>
       <c r="G26" t="n">
         <v>319.8560819119778</v>
@@ -6223,16 +6223,16 @@
         <v>42.39600029245376</v>
       </c>
       <c r="I26" t="n">
-        <v>83.4904134142339</v>
+        <v>83.49041341423376</v>
       </c>
       <c r="J26" t="n">
-        <v>220.1314621299487</v>
+        <v>220.1314621299486</v>
       </c>
       <c r="K26" t="n">
-        <v>433.1659828319417</v>
+        <v>433.1659828319415</v>
       </c>
       <c r="L26" t="n">
-        <v>703.4506798655943</v>
+        <v>703.4506798655941</v>
       </c>
       <c r="M26" t="n">
         <v>1009.34076718589</v>
@@ -6259,19 +6259,19 @@
         <v>2119.800014622688</v>
       </c>
       <c r="U26" t="n">
-        <v>2119.800014622688</v>
+        <v>1861.604525578189</v>
       </c>
       <c r="V26" t="n">
-        <v>1762.310599748938</v>
+        <v>1861.604525578189</v>
       </c>
       <c r="W26" t="n">
-        <v>1762.310599748938</v>
+        <v>1861.604525578189</v>
       </c>
       <c r="X26" t="n">
-        <v>1350.590600916685</v>
+        <v>1861.604525578189</v>
       </c>
       <c r="Y26" t="n">
-        <v>1350.590600916685</v>
+        <v>1574.227301631222</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>140.6890736543378</v>
       </c>
       <c r="K27" t="n">
-        <v>562.3618210850108</v>
+        <v>287.2584022575215</v>
       </c>
       <c r="L27" t="n">
-        <v>766.9697841082982</v>
+        <v>491.866365280809</v>
       </c>
       <c r="M27" t="n">
-        <v>1008.883117300327</v>
+        <v>733.7796984728375</v>
       </c>
       <c r="N27" t="n">
-        <v>1259.540581385168</v>
+        <v>984.437162557679</v>
       </c>
       <c r="O27" t="n">
-        <v>1485.232474392533</v>
+        <v>1210.129055565044</v>
       </c>
       <c r="P27" t="n">
-        <v>1663.228492615173</v>
+        <v>1388.125073787684</v>
       </c>
       <c r="Q27" t="n">
         <v>1774.102247579974</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>380.5767692606842</v>
+        <v>223.1041718818614</v>
       </c>
       <c r="C28" t="n">
-        <v>208.6042061396002</v>
+        <v>223.1041718818614</v>
       </c>
       <c r="D28" t="n">
-        <v>208.6042061396002</v>
+        <v>223.1041718818614</v>
       </c>
       <c r="E28" t="n">
-        <v>42.39600029245376</v>
+        <v>223.1041718818614</v>
       </c>
       <c r="F28" t="n">
-        <v>42.39600029245376</v>
+        <v>223.1041718818614</v>
       </c>
       <c r="G28" t="n">
-        <v>42.39600029245376</v>
+        <v>223.1041718818614</v>
       </c>
       <c r="H28" t="n">
-        <v>42.39600029245376</v>
+        <v>87.25531863758903</v>
       </c>
       <c r="I28" t="n">
         <v>42.39600029245376</v>
@@ -6387,22 +6387,22 @@
         <v>83.90537476982985</v>
       </c>
       <c r="K28" t="n">
-        <v>164.9364244520255</v>
+        <v>412.2190335660476</v>
       </c>
       <c r="L28" t="n">
-        <v>417.0810776681227</v>
+        <v>520.7705712718921</v>
       </c>
       <c r="M28" t="n">
-        <v>532.0629251200691</v>
+        <v>1045.421074891007</v>
       </c>
       <c r="N28" t="n">
-        <v>1043.620532038271</v>
+        <v>1556.978681809209</v>
       </c>
       <c r="O28" t="n">
-        <v>1522.880399639414</v>
+        <v>1674.253897017313</v>
       </c>
       <c r="P28" t="n">
-        <v>1919.439056802506</v>
+        <v>2070.812554180405</v>
       </c>
       <c r="Q28" t="n">
         <v>2119.800014622688</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1229.553873105167</v>
+        <v>1170.95720357472</v>
       </c>
       <c r="C29" t="n">
-        <v>802.6531431184671</v>
+        <v>1170.95720357472</v>
       </c>
       <c r="D29" t="n">
-        <v>379.3605223034674</v>
+        <v>1170.95720357472</v>
       </c>
       <c r="E29" t="n">
-        <v>379.3605223034674</v>
+        <v>744.9802637225775</v>
       </c>
       <c r="F29" t="n">
-        <v>42.39600029245376</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="G29" t="n">
-        <v>42.39600029245376</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="H29" t="n">
         <v>42.39600029245376</v>
@@ -6463,13 +6463,13 @@
         <v>83.49041341423376</v>
       </c>
       <c r="J29" t="n">
-        <v>220.1314621299486</v>
+        <v>220.1314621299488</v>
       </c>
       <c r="K29" t="n">
-        <v>433.1659828319415</v>
+        <v>433.1659828319417</v>
       </c>
       <c r="L29" t="n">
-        <v>703.4506798655941</v>
+        <v>703.4506798655942</v>
       </c>
       <c r="M29" t="n">
         <v>1009.34076718589</v>
@@ -6490,25 +6490,25 @@
         <v>2119.800014622688</v>
       </c>
       <c r="S29" t="n">
-        <v>2119.800014622688</v>
+        <v>2060.842613404949</v>
       </c>
       <c r="T29" t="n">
-        <v>1907.597726441196</v>
+        <v>2060.842613404949</v>
       </c>
       <c r="U29" t="n">
-        <v>1649.402237396697</v>
+        <v>2060.842613404949</v>
       </c>
       <c r="V29" t="n">
-        <v>1649.402237396697</v>
+        <v>2060.842613404949</v>
       </c>
       <c r="W29" t="n">
-        <v>1649.402237396697</v>
+        <v>2002.525566698503</v>
       </c>
       <c r="X29" t="n">
-        <v>1649.402237396697</v>
+        <v>1590.80556786625</v>
       </c>
       <c r="Y29" t="n">
-        <v>1649.402237396697</v>
+        <v>1590.80556786625</v>
       </c>
     </row>
     <row r="30">
@@ -6548,16 +6548,16 @@
         <v>287.2584022575215</v>
       </c>
       <c r="L30" t="n">
-        <v>491.866365280809</v>
+        <v>766.9697841082982</v>
       </c>
       <c r="M30" t="n">
-        <v>733.7796984728375</v>
+        <v>1008.883117300327</v>
       </c>
       <c r="N30" t="n">
-        <v>984.437162557679</v>
+        <v>1259.540581385168</v>
       </c>
       <c r="O30" t="n">
-        <v>1210.129055565044</v>
+        <v>1485.232474392533</v>
       </c>
       <c r="P30" t="n">
         <v>1663.228492615173</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>223.1041718818614</v>
+        <v>506.9247150551578</v>
       </c>
       <c r="C31" t="n">
-        <v>51.13160876077743</v>
+        <v>506.9247150551578</v>
       </c>
       <c r="D31" t="n">
-        <v>51.13160876077743</v>
+        <v>343.6079421819285</v>
       </c>
       <c r="E31" t="n">
-        <v>42.39600029245376</v>
+        <v>343.6079421819285</v>
       </c>
       <c r="F31" t="n">
-        <v>42.39600029245376</v>
+        <v>343.6079421819285</v>
       </c>
       <c r="G31" t="n">
-        <v>42.39600029245376</v>
+        <v>178.2448535367262</v>
       </c>
       <c r="H31" t="n">
         <v>42.39600029245376</v>
@@ -6624,49 +6624,49 @@
         <v>83.90537476982985</v>
       </c>
       <c r="K31" t="n">
-        <v>309.8429706743163</v>
+        <v>164.9364244520255</v>
       </c>
       <c r="L31" t="n">
-        <v>794.7834019713258</v>
+        <v>471.5421234521605</v>
       </c>
       <c r="M31" t="n">
-        <v>909.7652494232722</v>
+        <v>996.1926270712758</v>
       </c>
       <c r="N31" t="n">
-        <v>1421.322856341474</v>
+        <v>1507.750233989477</v>
       </c>
       <c r="O31" t="n">
-        <v>1522.880399639414</v>
+        <v>1987.01010159062</v>
       </c>
       <c r="P31" t="n">
-        <v>1919.439056802506</v>
+        <v>2070.812554180405</v>
       </c>
       <c r="Q31" t="n">
         <v>2119.800014622688</v>
       </c>
       <c r="R31" t="n">
-        <v>2112.95354426947</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="S31" t="n">
-        <v>1958.396405816823</v>
+        <v>1965.242876170042</v>
       </c>
       <c r="T31" t="n">
-        <v>1718.876368028776</v>
+        <v>1725.722838381994</v>
       </c>
       <c r="U31" t="n">
-        <v>1438.740676677838</v>
+        <v>1445.587147031057</v>
       </c>
       <c r="V31" t="n">
-        <v>1157.029209285867</v>
+        <v>1163.875679639086</v>
       </c>
       <c r="W31" t="n">
-        <v>882.1768054583799</v>
+        <v>889.0232758115985</v>
       </c>
       <c r="X31" t="n">
-        <v>639.612908904185</v>
+        <v>646.4593792574036</v>
       </c>
       <c r="Y31" t="n">
-        <v>413.2701405939271</v>
+        <v>506.9247150551578</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>833.1625234055139</v>
+        <v>637.0463609547935</v>
       </c>
       <c r="C32" t="n">
-        <v>468.3729401445962</v>
+        <v>637.0463609547935</v>
       </c>
       <c r="D32" t="n">
-        <v>468.3729401445962</v>
+        <v>637.0463609547935</v>
       </c>
       <c r="E32" t="n">
-        <v>42.39600029245376</v>
+        <v>211.0694211026511</v>
       </c>
       <c r="F32" t="n">
         <v>42.39600029245376</v>
@@ -6697,16 +6697,16 @@
         <v>42.39600029245376</v>
       </c>
       <c r="I32" t="n">
-        <v>83.49041341423376</v>
+        <v>83.49041341423379</v>
       </c>
       <c r="J32" t="n">
-        <v>220.1314621299486</v>
+        <v>220.1314621299487</v>
       </c>
       <c r="K32" t="n">
-        <v>433.1659828319417</v>
+        <v>433.1659828319416</v>
       </c>
       <c r="L32" t="n">
-        <v>703.4506798655942</v>
+        <v>703.4506798655941</v>
       </c>
       <c r="M32" t="n">
         <v>1009.34076718589</v>
@@ -6727,25 +6727,25 @@
         <v>2119.800014622688</v>
       </c>
       <c r="S32" t="n">
-        <v>2119.800014622688</v>
+        <v>2060.842613404949</v>
       </c>
       <c r="T32" t="n">
-        <v>1907.597726441196</v>
+        <v>2060.842613404949</v>
       </c>
       <c r="U32" t="n">
-        <v>1649.402237396697</v>
+        <v>1802.64712436045</v>
       </c>
       <c r="V32" t="n">
-        <v>1649.402237396697</v>
+        <v>1445.157709486699</v>
       </c>
       <c r="W32" t="n">
-        <v>1253.010887697044</v>
+        <v>1048.766359787046</v>
       </c>
       <c r="X32" t="n">
-        <v>1253.010887697044</v>
+        <v>637.0463609547935</v>
       </c>
       <c r="Y32" t="n">
-        <v>1253.010887697044</v>
+        <v>637.0463609547935</v>
       </c>
     </row>
     <row r="33">
@@ -6788,19 +6788,19 @@
         <v>491.866365280809</v>
       </c>
       <c r="M33" t="n">
-        <v>733.7796984728375</v>
+        <v>1008.883117300327</v>
       </c>
       <c r="N33" t="n">
-        <v>984.437162557679</v>
+        <v>1259.540581385168</v>
       </c>
       <c r="O33" t="n">
-        <v>1210.129055565044</v>
+        <v>1485.232474392533</v>
       </c>
       <c r="P33" t="n">
-        <v>1557.772992330267</v>
+        <v>1663.228492615173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1668.646747295068</v>
+        <v>1774.102247579974</v>
       </c>
       <c r="R33" t="n">
         <v>1815.547718957572</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>377.6853362867671</v>
+        <v>627.0716772419214</v>
       </c>
       <c r="C34" t="n">
-        <v>205.7127731656831</v>
+        <v>455.0991141208374</v>
       </c>
       <c r="D34" t="n">
-        <v>42.39600029245376</v>
+        <v>455.0991141208374</v>
       </c>
       <c r="E34" t="n">
-        <v>42.39600029245376</v>
+        <v>288.8909082736909</v>
       </c>
       <c r="F34" t="n">
-        <v>42.39600029245376</v>
+        <v>117.0291340482513</v>
       </c>
       <c r="G34" t="n">
         <v>42.39600029245376</v>
@@ -6858,52 +6858,52 @@
         <v>42.39600029245376</v>
       </c>
       <c r="J34" t="n">
-        <v>83.90537476982985</v>
+        <v>161.8270914180507</v>
       </c>
       <c r="K34" t="n">
-        <v>164.9364244520255</v>
+        <v>490.1407502142685</v>
       </c>
       <c r="L34" t="n">
-        <v>273.48796215787</v>
+        <v>598.6922879201129</v>
       </c>
       <c r="M34" t="n">
-        <v>798.1384657769853</v>
+        <v>713.6741353720593</v>
       </c>
       <c r="N34" t="n">
-        <v>1309.696072695187</v>
+        <v>1194.99402941617</v>
       </c>
       <c r="O34" t="n">
-        <v>1788.95594029633</v>
+        <v>1674.253897017313</v>
       </c>
       <c r="P34" t="n">
-        <v>1919.439056802506</v>
+        <v>2070.812554180405</v>
       </c>
       <c r="Q34" t="n">
         <v>2119.800014622688</v>
       </c>
       <c r="R34" t="n">
-        <v>2112.95354426947</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="S34" t="n">
-        <v>1958.396405816823</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="T34" t="n">
-        <v>1718.876368028776</v>
+        <v>1880.279976834641</v>
       </c>
       <c r="U34" t="n">
-        <v>1438.740676677838</v>
+        <v>1600.144285483703</v>
       </c>
       <c r="V34" t="n">
-        <v>1157.029209285867</v>
+        <v>1318.432818091732</v>
       </c>
       <c r="W34" t="n">
-        <v>882.1768054583799</v>
+        <v>1043.580414264245</v>
       </c>
       <c r="X34" t="n">
-        <v>639.612908904185</v>
+        <v>1043.580414264245</v>
       </c>
       <c r="Y34" t="n">
-        <v>413.2701405939271</v>
+        <v>817.2376459539871</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1244.602899413766</v>
+        <v>833.1625234055139</v>
       </c>
       <c r="C35" t="n">
-        <v>1244.602899413766</v>
+        <v>406.261793418814</v>
       </c>
       <c r="D35" t="n">
-        <v>821.3102785987662</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="E35" t="n">
-        <v>395.3333387466238</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="F35" t="n">
-        <v>42.39600029245376</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="G35" t="n">
-        <v>42.39600029245376</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="H35" t="n">
         <v>42.39600029245376</v>
@@ -6964,25 +6964,25 @@
         <v>2119.800014622688</v>
       </c>
       <c r="S35" t="n">
-        <v>2060.842613404949</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="T35" t="n">
-        <v>2060.842613404949</v>
+        <v>1907.597726441196</v>
       </c>
       <c r="U35" t="n">
-        <v>2060.842613404949</v>
+        <v>1649.402237396697</v>
       </c>
       <c r="V35" t="n">
-        <v>2060.842613404949</v>
+        <v>1649.402237396697</v>
       </c>
       <c r="W35" t="n">
-        <v>1664.451263705296</v>
+        <v>1253.010887697044</v>
       </c>
       <c r="X35" t="n">
-        <v>1664.451263705296</v>
+        <v>1253.010887697044</v>
       </c>
       <c r="Y35" t="n">
-        <v>1664.451263705296</v>
+        <v>1253.010887697044</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>62.36450125466524</v>
       </c>
       <c r="J36" t="n">
-        <v>140.6890736543378</v>
+        <v>415.7924924818271</v>
       </c>
       <c r="K36" t="n">
-        <v>287.2584022575215</v>
+        <v>562.3618210850108</v>
       </c>
       <c r="L36" t="n">
-        <v>491.866365280809</v>
+        <v>766.9697841082982</v>
       </c>
       <c r="M36" t="n">
-        <v>733.7796984728375</v>
+        <v>1008.883117300327</v>
       </c>
       <c r="N36" t="n">
-        <v>984.437162557679</v>
+        <v>1259.540581385168</v>
       </c>
       <c r="O36" t="n">
-        <v>1210.129055565044</v>
+        <v>1485.232474392533</v>
       </c>
       <c r="P36" t="n">
-        <v>1388.125073787684</v>
+        <v>1663.228492615173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1668.646747295068</v>
+        <v>1774.102247579974</v>
       </c>
       <c r="R36" t="n">
         <v>1815.547718957572</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>281.491333050682</v>
+        <v>617.1813481225554</v>
       </c>
       <c r="C37" t="n">
-        <v>281.491333050682</v>
+        <v>445.2087850014714</v>
       </c>
       <c r="D37" t="n">
-        <v>281.491333050682</v>
+        <v>281.8920121282421</v>
       </c>
       <c r="E37" t="n">
-        <v>115.2831272035355</v>
+        <v>115.6838062810956</v>
       </c>
       <c r="F37" t="n">
-        <v>115.2831272035355</v>
+        <v>115.6838062810956</v>
       </c>
       <c r="G37" t="n">
-        <v>115.2831272035355</v>
+        <v>115.6838062810956</v>
       </c>
       <c r="H37" t="n">
-        <v>115.2831272035355</v>
+        <v>42.39600029245376</v>
       </c>
       <c r="I37" t="n">
         <v>42.39600029245376</v>
@@ -7098,19 +7098,19 @@
         <v>83.90537476982985</v>
       </c>
       <c r="K37" t="n">
-        <v>164.9364244520255</v>
+        <v>412.2190335660476</v>
       </c>
       <c r="L37" t="n">
-        <v>405.445344342834</v>
+        <v>897.1594648630571</v>
       </c>
       <c r="M37" t="n">
-        <v>930.0958479619493</v>
+        <v>1012.141312315003</v>
       </c>
       <c r="N37" t="n">
-        <v>1043.620532038271</v>
+        <v>1523.698919233205</v>
       </c>
       <c r="O37" t="n">
-        <v>1522.880399639414</v>
+        <v>1835.636604212721</v>
       </c>
       <c r="P37" t="n">
         <v>1919.439056802506</v>
@@ -7122,25 +7122,25 @@
         <v>2112.95354426947</v>
       </c>
       <c r="S37" t="n">
-        <v>1958.396405816823</v>
+        <v>2112.95354426947</v>
       </c>
       <c r="T37" t="n">
-        <v>1718.876368028776</v>
+        <v>2112.95354426947</v>
       </c>
       <c r="U37" t="n">
-        <v>1438.740676677838</v>
+        <v>1832.817852918532</v>
       </c>
       <c r="V37" t="n">
-        <v>1157.029209285867</v>
+        <v>1551.106385526561</v>
       </c>
       <c r="W37" t="n">
-        <v>882.1768054583799</v>
+        <v>1276.253981699074</v>
       </c>
       <c r="X37" t="n">
-        <v>639.612908904185</v>
+        <v>1033.690085144879</v>
       </c>
       <c r="Y37" t="n">
-        <v>413.2701405939271</v>
+        <v>807.3473168346211</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1294.614380286049</v>
+        <v>1456.267255533079</v>
       </c>
       <c r="C38" t="n">
-        <v>867.7136502993487</v>
+        <v>1170.95720357472</v>
       </c>
       <c r="D38" t="n">
-        <v>722.2023898339227</v>
+        <v>1170.95720357472</v>
       </c>
       <c r="E38" t="n">
-        <v>722.2023898339227</v>
+        <v>744.9802637225775</v>
       </c>
       <c r="F38" t="n">
-        <v>722.2023898339227</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="G38" t="n">
         <v>319.8560819119778</v>
@@ -7171,16 +7171,16 @@
         <v>42.39600029245376</v>
       </c>
       <c r="I38" t="n">
-        <v>83.49041341423344</v>
+        <v>83.49041341423379</v>
       </c>
       <c r="J38" t="n">
-        <v>220.1314621299484</v>
+        <v>220.1314621299487</v>
       </c>
       <c r="K38" t="n">
-        <v>433.1659828319414</v>
+        <v>433.1659828319416</v>
       </c>
       <c r="L38" t="n">
-        <v>703.450679865594</v>
+        <v>703.4506798655941</v>
       </c>
       <c r="M38" t="n">
         <v>1009.34076718589</v>
@@ -7207,19 +7207,19 @@
         <v>2119.800014622688</v>
       </c>
       <c r="U38" t="n">
-        <v>2119.800014622688</v>
+        <v>1861.604525578189</v>
       </c>
       <c r="V38" t="n">
-        <v>2119.800014622688</v>
+        <v>1861.604525578189</v>
       </c>
       <c r="W38" t="n">
-        <v>2119.800014622688</v>
+        <v>1861.604525578189</v>
       </c>
       <c r="X38" t="n">
-        <v>2119.800014622688</v>
+        <v>1861.604525578189</v>
       </c>
       <c r="Y38" t="n">
-        <v>1714.462744577579</v>
+        <v>1456.267255533079</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>42.39600029245376</v>
       </c>
       <c r="I39" t="n">
-        <v>62.36450125466524</v>
+        <v>85.82180709907708</v>
       </c>
       <c r="J39" t="n">
-        <v>140.6890736543378</v>
+        <v>164.1463794987497</v>
       </c>
       <c r="K39" t="n">
-        <v>287.2584022575215</v>
+        <v>310.7157081019334</v>
       </c>
       <c r="L39" t="n">
-        <v>491.866365280809</v>
+        <v>515.3236711252208</v>
       </c>
       <c r="M39" t="n">
-        <v>733.7796984728375</v>
+        <v>757.2370043172493</v>
       </c>
       <c r="N39" t="n">
-        <v>984.437162557679</v>
+        <v>1007.894468402091</v>
       </c>
       <c r="O39" t="n">
-        <v>1210.129055565044</v>
+        <v>1485.232474392533</v>
       </c>
       <c r="P39" t="n">
         <v>1663.228492615173</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>504.8156392738326</v>
+        <v>1016.967258248828</v>
       </c>
       <c r="C40" t="n">
-        <v>504.8156392738326</v>
+        <v>844.9946951277439</v>
       </c>
       <c r="D40" t="n">
-        <v>504.8156392738326</v>
+        <v>681.6779222545146</v>
       </c>
       <c r="E40" t="n">
-        <v>379.6208631630957</v>
+        <v>515.4697164073681</v>
       </c>
       <c r="F40" t="n">
-        <v>207.7590889376561</v>
+        <v>343.6079421819285</v>
       </c>
       <c r="G40" t="n">
-        <v>42.39600029245376</v>
+        <v>178.2448535367262</v>
       </c>
       <c r="H40" t="n">
         <v>42.39600029245376</v>
@@ -7335,13 +7335,13 @@
         <v>83.90537476982985</v>
       </c>
       <c r="K40" t="n">
-        <v>211.6170883684168</v>
+        <v>233.2611176191319</v>
       </c>
       <c r="L40" t="n">
-        <v>320.1686260742613</v>
+        <v>718.2015489161414</v>
       </c>
       <c r="M40" t="n">
-        <v>844.8191296933766</v>
+        <v>1242.852052535257</v>
       </c>
       <c r="N40" t="n">
         <v>1356.376736611578</v>
@@ -7356,28 +7356,28 @@
         <v>2119.800014622688</v>
       </c>
       <c r="R40" t="n">
-        <v>2112.95354426947</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="S40" t="n">
-        <v>1958.396405816823</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="T40" t="n">
-        <v>1718.876368028776</v>
+        <v>1880.279976834641</v>
       </c>
       <c r="U40" t="n">
-        <v>1438.740676677838</v>
+        <v>1600.144285483703</v>
       </c>
       <c r="V40" t="n">
-        <v>1438.740676677838</v>
+        <v>1318.432818091732</v>
       </c>
       <c r="W40" t="n">
-        <v>1163.888272850351</v>
+        <v>1318.432818091732</v>
       </c>
       <c r="X40" t="n">
-        <v>921.3243762961562</v>
+        <v>1243.310026559086</v>
       </c>
       <c r="Y40" t="n">
-        <v>694.9816079858982</v>
+        <v>1016.967258248828</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>683.0395618178013</v>
+        <v>468.3729401445962</v>
       </c>
       <c r="C41" t="n">
-        <v>467.5201821030536</v>
+        <v>468.3729401445962</v>
       </c>
       <c r="D41" t="n">
-        <v>467.5201821030536</v>
+        <v>468.3729401445962</v>
       </c>
       <c r="E41" t="n">
-        <v>467.5201821030536</v>
+        <v>42.39600029245377</v>
       </c>
       <c r="F41" t="n">
         <v>42.39600029245377</v>
@@ -7438,25 +7438,25 @@
         <v>2119.800014622689</v>
       </c>
       <c r="S41" t="n">
-        <v>2060.84261340495</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="T41" t="n">
-        <v>1848.640325223458</v>
+        <v>1907.597726441197</v>
       </c>
       <c r="U41" t="n">
-        <v>1848.640325223458</v>
+        <v>1649.402237396698</v>
       </c>
       <c r="V41" t="n">
-        <v>1491.150910349707</v>
+        <v>1649.402237396698</v>
       </c>
       <c r="W41" t="n">
-        <v>1094.759560650054</v>
+        <v>1649.402237396698</v>
       </c>
       <c r="X41" t="n">
-        <v>683.0395618178013</v>
+        <v>1293.558574481236</v>
       </c>
       <c r="Y41" t="n">
-        <v>683.0395618178013</v>
+        <v>888.2213044361263</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>62.36450125466525</v>
       </c>
       <c r="J42" t="n">
-        <v>140.6890736543379</v>
+        <v>415.7924924818268</v>
       </c>
       <c r="K42" t="n">
-        <v>287.2584022575217</v>
+        <v>562.3618210850105</v>
       </c>
       <c r="L42" t="n">
-        <v>491.8663652808091</v>
+        <v>766.969784108298</v>
       </c>
       <c r="M42" t="n">
-        <v>733.7796984728377</v>
+        <v>1008.883117300327</v>
       </c>
       <c r="N42" t="n">
-        <v>984.4371625576794</v>
+        <v>1259.540581385168</v>
       </c>
       <c r="O42" t="n">
-        <v>1210.129055565044</v>
+        <v>1485.232474392533</v>
       </c>
       <c r="P42" t="n">
-        <v>1388.125073787684</v>
+        <v>1663.228492615173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1668.646747295068</v>
+        <v>1774.102247579974</v>
       </c>
       <c r="R42" t="n">
         <v>1815.547718957572</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>731.158407584091</v>
+        <v>845.1054840233883</v>
       </c>
       <c r="C43" t="n">
-        <v>559.185844463007</v>
+        <v>673.1329209023042</v>
       </c>
       <c r="D43" t="n">
-        <v>395.8690715897777</v>
+        <v>509.816148029075</v>
       </c>
       <c r="E43" t="n">
-        <v>395.8690715897777</v>
+        <v>343.6079421819285</v>
       </c>
       <c r="F43" t="n">
-        <v>224.0072973643381</v>
+        <v>343.6079421819285</v>
       </c>
       <c r="G43" t="n">
-        <v>115.2831272035355</v>
+        <v>178.2448535367262</v>
       </c>
       <c r="H43" t="n">
-        <v>115.2831272035355</v>
+        <v>42.39600029245377</v>
       </c>
       <c r="I43" t="n">
         <v>42.39600029245377</v>
@@ -7575,46 +7575,46 @@
         <v>412.2190335660476</v>
       </c>
       <c r="L43" t="n">
-        <v>520.7705712718921</v>
+        <v>897.1594648630571</v>
       </c>
       <c r="M43" t="n">
-        <v>1045.421074891007</v>
+        <v>1012.141312315003</v>
       </c>
       <c r="N43" t="n">
-        <v>1556.978681809209</v>
+        <v>1194.99402941617</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.636604212722</v>
+        <v>1674.253897017313</v>
       </c>
       <c r="P43" t="n">
-        <v>1919.439056802506</v>
+        <v>2070.812554180405</v>
       </c>
       <c r="Q43" t="n">
         <v>2119.800014622689</v>
       </c>
       <c r="R43" t="n">
-        <v>2112.95354426947</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S43" t="n">
-        <v>1958.396405816824</v>
+        <v>1965.242876170042</v>
       </c>
       <c r="T43" t="n">
-        <v>1718.876368028776</v>
+        <v>1725.722838381995</v>
       </c>
       <c r="U43" t="n">
-        <v>1438.740676677839</v>
+        <v>1725.722838381995</v>
       </c>
       <c r="V43" t="n">
-        <v>1438.740676677839</v>
+        <v>1444.011370990024</v>
       </c>
       <c r="W43" t="n">
-        <v>1163.888272850352</v>
+        <v>1261.614221045712</v>
       </c>
       <c r="X43" t="n">
-        <v>921.3243762961566</v>
+        <v>1261.614221045712</v>
       </c>
       <c r="Y43" t="n">
-        <v>921.3243762961566</v>
+        <v>1035.271452735454</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>869.8664900249985</v>
+        <v>1295.843429877141</v>
       </c>
       <c r="C44" t="n">
-        <v>869.8664900249985</v>
+        <v>1295.843429877141</v>
       </c>
       <c r="D44" t="n">
-        <v>869.8664900249985</v>
+        <v>1295.843429877141</v>
       </c>
       <c r="E44" t="n">
         <v>869.8664900249985</v>
@@ -7660,10 +7660,10 @@
         <v>1009.34076718589</v>
       </c>
       <c r="N44" t="n">
-        <v>1320.930219778829</v>
+        <v>1320.93021977883</v>
       </c>
       <c r="O44" t="n">
-        <v>1612.988324273002</v>
+        <v>1612.988324273003</v>
       </c>
       <c r="P44" t="n">
         <v>1856.646746816144</v>
@@ -7675,25 +7675,25 @@
         <v>2119.800014622689</v>
       </c>
       <c r="S44" t="n">
-        <v>2091.443474061291</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="T44" t="n">
-        <v>2091.443474061291</v>
+        <v>1965.758917753893</v>
       </c>
       <c r="U44" t="n">
-        <v>2091.443474061291</v>
+        <v>1707.563428709394</v>
       </c>
       <c r="V44" t="n">
-        <v>2091.443474061291</v>
+        <v>1707.563428709394</v>
       </c>
       <c r="W44" t="n">
-        <v>1695.052124361638</v>
+        <v>1707.563428709394</v>
       </c>
       <c r="X44" t="n">
-        <v>1695.052124361638</v>
+        <v>1295.843429877141</v>
       </c>
       <c r="Y44" t="n">
-        <v>1289.714854316529</v>
+        <v>1295.843429877141</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>902.4081515166739</v>
+        <v>598.1558558515571</v>
       </c>
       <c r="C45" t="n">
-        <v>784.9022480341787</v>
+        <v>480.6499523690619</v>
       </c>
       <c r="D45" t="n">
-        <v>681.0622895494637</v>
+        <v>376.8099938843469</v>
       </c>
       <c r="E45" t="n">
-        <v>576.3603558224009</v>
+        <v>272.1080601572841</v>
       </c>
       <c r="F45" t="n">
-        <v>482.7145255053051</v>
+        <v>178.4622298401883</v>
       </c>
       <c r="G45" t="n">
-        <v>389.7269713721669</v>
+        <v>85.47467570705</v>
       </c>
       <c r="H45" t="n">
-        <v>346.6482959575707</v>
+        <v>42.39600029245377</v>
       </c>
       <c r="I45" t="n">
-        <v>366.6167969197821</v>
+        <v>62.36450125466525</v>
       </c>
       <c r="J45" t="n">
-        <v>444.9413693194547</v>
+        <v>140.6890736543379</v>
       </c>
       <c r="K45" t="n">
-        <v>591.5106979226384</v>
+        <v>287.2584022575217</v>
       </c>
       <c r="L45" t="n">
-        <v>796.1186609459259</v>
+        <v>766.969784108298</v>
       </c>
       <c r="M45" t="n">
-        <v>1038.031994137954</v>
+        <v>1008.883117300327</v>
       </c>
       <c r="N45" t="n">
-        <v>1288.689458222796</v>
+        <v>1259.540581385168</v>
       </c>
       <c r="O45" t="n">
-        <v>1514.381351230161</v>
+        <v>1485.232474392533</v>
       </c>
       <c r="P45" t="n">
-        <v>1692.377369452801</v>
+        <v>1663.228492615173</v>
       </c>
       <c r="Q45" t="n">
-        <v>2078.354543245091</v>
+        <v>1774.102247579974</v>
       </c>
       <c r="R45" t="n">
-        <v>2119.800014622689</v>
+        <v>1815.547718957572</v>
       </c>
       <c r="S45" t="n">
-        <v>2058.280292379585</v>
+        <v>1754.027996714468</v>
       </c>
       <c r="T45" t="n">
-        <v>1920.697962026684</v>
+        <v>1616.445666361567</v>
       </c>
       <c r="U45" t="n">
-        <v>1735.999911844298</v>
+        <v>1431.747616179181</v>
       </c>
       <c r="V45" t="n">
-        <v>1531.026772983564</v>
+        <v>1226.774477318447</v>
       </c>
       <c r="W45" t="n">
-        <v>1334.505395816781</v>
+        <v>1030.253100151665</v>
       </c>
       <c r="X45" t="n">
-        <v>1171.028049583444</v>
+        <v>866.7757539183275</v>
       </c>
       <c r="Y45" t="n">
-        <v>1031.335160936737</v>
+        <v>727.0828652716199</v>
       </c>
     </row>
     <row r="46">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>414.4487533210372</v>
+        <v>1016.967258248828</v>
       </c>
       <c r="C46" t="n">
-        <v>414.4487533210372</v>
+        <v>844.9946951277439</v>
       </c>
       <c r="D46" t="n">
-        <v>251.1319804478079</v>
+        <v>681.6779222545146</v>
       </c>
       <c r="E46" t="n">
-        <v>251.1319804478079</v>
+        <v>515.4697164073681</v>
       </c>
       <c r="F46" t="n">
-        <v>251.1319804478079</v>
+        <v>343.6079421819285</v>
       </c>
       <c r="G46" t="n">
-        <v>251.1319804478079</v>
+        <v>178.2448535367262</v>
       </c>
       <c r="H46" t="n">
-        <v>115.2831272035355</v>
+        <v>42.39600029245377</v>
       </c>
       <c r="I46" t="n">
         <v>42.39600029245377</v>
       </c>
       <c r="J46" t="n">
-        <v>83.90537476982986</v>
+        <v>161.8270914180507</v>
       </c>
       <c r="K46" t="n">
-        <v>164.9364244520255</v>
+        <v>490.1407502142685</v>
       </c>
       <c r="L46" t="n">
-        <v>471.5421234521606</v>
+        <v>975.0811815112779</v>
       </c>
       <c r="M46" t="n">
-        <v>996.192627071276</v>
+        <v>1090.063028963224</v>
       </c>
       <c r="N46" t="n">
-        <v>1507.750233989477</v>
+        <v>1421.322856341474</v>
       </c>
       <c r="O46" t="n">
-        <v>1987.010101590621</v>
+        <v>1522.880399639414</v>
       </c>
       <c r="P46" t="n">
-        <v>2070.812554180405</v>
+        <v>1919.439056802506</v>
       </c>
       <c r="Q46" t="n">
         <v>2119.800014622689</v>
@@ -7833,25 +7833,25 @@
         <v>2112.95354426947</v>
       </c>
       <c r="S46" t="n">
-        <v>1958.396405816824</v>
+        <v>2112.95354426947</v>
       </c>
       <c r="T46" t="n">
-        <v>1910.220949467951</v>
+        <v>1873.433506481423</v>
       </c>
       <c r="U46" t="n">
-        <v>1630.085258117014</v>
+        <v>1873.433506481423</v>
       </c>
       <c r="V46" t="n">
-        <v>1348.373790725043</v>
+        <v>1873.433506481423</v>
       </c>
       <c r="W46" t="n">
-        <v>1073.521386897556</v>
+        <v>1598.581102653936</v>
       </c>
       <c r="X46" t="n">
-        <v>830.9574903433609</v>
+        <v>1433.475995271152</v>
       </c>
       <c r="Y46" t="n">
-        <v>604.6147220331029</v>
+        <v>1207.133226960894</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>277.8822412398883</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>277.8822412398877</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>380.1908016072373</v>
+        <v>54.58148034014462</v>
       </c>
       <c r="M13" t="n">
-        <v>413.8067234011807</v>
+        <v>413.8067234011808</v>
       </c>
       <c r="N13" t="n">
-        <v>353.6544502365523</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>277.8822412398877</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>277.8822412398883</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9090,22 +9090,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>413.806723401181</v>
+        <v>413.8067234011808</v>
       </c>
       <c r="N16" t="n">
-        <v>402.0534574160406</v>
+        <v>274.9456455413798</v>
       </c>
       <c r="O16" t="n">
-        <v>100.1804671286383</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>277.8822412398877</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>254.1879929121996</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>413.8067234011809</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>54.58148034014458</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>49.4923580668364</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>254.1879929121996</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.8822412398878</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9561,19 +9561,19 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>186.3185663898226</v>
       </c>
       <c r="M22" t="n">
-        <v>88.1974021340877</v>
+        <v>413.8067234011808</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>315.9153581548562</v>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>277.8822412398882</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>277.882241239888</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9801,16 +9801,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>112.7543269154413</v>
       </c>
       <c r="M25" t="n">
-        <v>145.043551020457</v>
+        <v>413.8067234011808</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
@@ -9956,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>277.8822412398882</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>277.8822412398883</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>145.0435510204573</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>413.8067234011808</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>381.5174992961649</v>
+        <v>15.87643627289293</v>
       </c>
       <c r="P28" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>277.8822412398881</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.8822412398883</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10272,25 +10272,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>146.3702487093847</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>380.1908016072373</v>
+        <v>200.0547083780712</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>413.8067234011808</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>277.882241239888</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>171.3615338813978</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>413.8067234011808</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>402.0534574160406</v>
+        <v>371.510313098777</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>47.15218577413236</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>277.8822412398881</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>171.3615338813977</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,22 +10746,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>133.2902850353172</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>413.8067234011808</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>212.5051936177539</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>152.9025226039384</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10916,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>254.1879929121995</v>
       </c>
       <c r="P39" t="n">
-        <v>277.8822412398883</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -10983,16 +10983,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>47.1521857741326</v>
+        <v>69.01484158293574</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
         <v>413.8067234011808</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>381.5174992961649</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>277.8822412398878</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>171.3615338813973</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11223,22 +11223,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>413.8067234011809</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>402.0534574160406</v>
+        <v>70.02831618671233</v>
       </c>
       <c r="O43" t="n">
-        <v>178.8892718238108</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>277.8822412398877</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>277.882241239888</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>200.0547083780712</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>413.8067234011809</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>402.0534574160406</v>
+        <v>219.9344881837662</v>
       </c>
       <c r="O46" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.142297892192687</v>
+        <v>0.142297892192675</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>343.2731945095163</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>398.3228448427254</v>
       </c>
       <c r="H11" t="n">
-        <v>274.6854808033287</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.36782720556182</v>
       </c>
       <c r="T11" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23323,10 +23323,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>69.77909253515986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.124837410167</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>94.75007954594457</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>58.06494240967319</v>
       </c>
     </row>
     <row r="14">
@@ -23500,19 +23500,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>285.1821938997149</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.3228448427254</v>
       </c>
       <c r="H14" t="n">
-        <v>118.9838087992147</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.36782720556181</v>
       </c>
       <c r="T14" t="n">
         <v>210.080265299677</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>114.0233170302764</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H16" t="n">
-        <v>134.4903647118297</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>72.15825564197092</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.77800564968625</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3343344374282</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>194.9320434354338</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>11.41126532959811</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>26.47659976296069</v>
+        <v>398.3228448427254</v>
       </c>
       <c r="H17" t="n">
         <v>274.6854808033287</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.3678272055618</v>
+        <v>58.36782720556181</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>155.7881903983461</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>163.7094577587503</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>2.886304336914225</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>153.0115670681201</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.3228448427254</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.36782720556182</v>
       </c>
       <c r="T20" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>188.2365256193203</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -24037,7 +24037,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>174.2337206095117</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>161.4949040995447</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>130.1969132941855</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7094577587503</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>134.4903647118297</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.77800564968625</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.124837410167</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3343344374282</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3228448427254</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>274.6854808033287</v>
@@ -24262,19 +24262,19 @@
         <v>210.080265299677</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>252.6936673035061</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>399.9630967971096</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>39.7281916092609</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.7094577587503</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>134.4903647118297</v>
       </c>
       <c r="I25" t="n">
-        <v>72.15825564197092</v>
+        <v>43.86369854646929</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.124837410167</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>235.1553414332982</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3228448427254</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>210.080265299677</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>116.7804456371617</v>
       </c>
     </row>
     <row r="27">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.8978714050345</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -24618,10 +24618,10 @@
         <v>163.7094577587503</v>
       </c>
       <c r="H28" t="n">
-        <v>134.4903647118297</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.15825564197092</v>
+        <v>27.74753048028702</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>87.27806320159027</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>398.3228448427254</v>
       </c>
       <c r="H29" t="n">
-        <v>274.6854808033287</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.36782720556181</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>334.6935599632748</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>155.8978714050346</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>163.7094577587503</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>134.4903647118297</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>72.15825564197092</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>6.77800564968625</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>85.94002306693207</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>61.49003525852441</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>253.8862533903985</v>
       </c>
       <c r="G32" t="n">
         <v>398.3228448427254</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.36782720556181</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.0353527608566</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.7094577587503</v>
+        <v>89.82265534051075</v>
       </c>
       <c r="H34" t="n">
         <v>134.4903647118297</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>6.77800564968625</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>153.0115670681201</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>333.5180402150818</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>71.46497492286545</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>398.3228448427254</v>
       </c>
       <c r="H35" t="n">
-        <v>274.6854808033287</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.36782720556181</v>
       </c>
       <c r="T35" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.80328955713236</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>163.7094577587503</v>
       </c>
       <c r="H37" t="n">
-        <v>134.4903647118297</v>
+        <v>61.93543678307422</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.15825564197092</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>153.0115670681201</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.124837410167</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>140.1747712480574</v>
       </c>
       <c r="D38" t="n">
-        <v>275.0035467460779</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.3228448427254</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>210.080265299677</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>40.60329543904547</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.4903647118297</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>72.15825564197092</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>6.77800564968625</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>153.0115670681201</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>165.7666939713331</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>209.2675367692326</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>398.3228448427254</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>55.31757255762341</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>56.07252929955575</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>134.4903647118297</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.15825564197092</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3343344374282</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>91.53070134434358</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -25873,7 +25873,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>30.29485204977858</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T44" t="n">
-        <v>210.080265299677</v>
+        <v>57.57957939956913</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7094577587503</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.15825564197092</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>153.0115670681201</v>
       </c>
       <c r="T46" t="n">
-        <v>189.4311356247836</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3343344374282</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>76.68420127969665</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>332579.378422131</v>
+        <v>332579.3784221309</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>332579.3784221309</v>
+        <v>332579.378422131</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>332579.3784221311</v>
+        <v>332579.3784221309</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>332579.3784221311</v>
+        <v>332579.378422131</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>332579.3784221311</v>
+        <v>332579.3784221309</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>332579.3784221311</v>
+        <v>332579.378422131</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>487704.0069784227</v>
+      </c>
+      <c r="C2" t="n">
         <v>487704.006978423</v>
-      </c>
-      <c r="C2" t="n">
-        <v>487704.0069784229</v>
       </c>
       <c r="D2" t="n">
         <v>487705.1569012871</v>
@@ -26325,34 +26325,34 @@
         <v>288421.0818212273</v>
       </c>
       <c r="F2" t="n">
+        <v>288421.0818212274</v>
+      </c>
+      <c r="G2" t="n">
         <v>288421.0818212273</v>
       </c>
-      <c r="G2" t="n">
-        <v>288421.0818212272</v>
-      </c>
       <c r="H2" t="n">
+        <v>288421.0818212274</v>
+      </c>
+      <c r="I2" t="n">
+        <v>288421.0818212274</v>
+      </c>
+      <c r="J2" t="n">
         <v>288421.0818212273</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>288421.0818212273</v>
       </c>
-      <c r="J2" t="n">
-        <v>288421.0818212274</v>
-      </c>
-      <c r="K2" t="n">
-        <v>288421.0818212272</v>
-      </c>
       <c r="L2" t="n">
-        <v>288421.0818212272</v>
+        <v>288421.0818212273</v>
       </c>
       <c r="M2" t="n">
-        <v>288421.0818212272</v>
+        <v>288421.0818212273</v>
       </c>
       <c r="N2" t="n">
         <v>288421.0818212273</v>
       </c>
       <c r="O2" t="n">
-        <v>288421.0818212274</v>
+        <v>288421.0818212273</v>
       </c>
       <c r="P2" t="n">
         <v>288421.0818212273</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36763.52824278933</v>
+        <v>36763.52824278935</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>3620.625146095253</v>
       </c>
       <c r="E3" t="n">
-        <v>518446.2164292485</v>
+        <v>518446.2164292483</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>312767.7001099116</v>
       </c>
       <c r="E4" t="n">
-        <v>27632.35165498944</v>
+        <v>27632.35165498946</v>
       </c>
       <c r="F4" t="n">
-        <v>27632.35165498945</v>
+        <v>27632.35165498946</v>
       </c>
       <c r="G4" t="n">
-        <v>27632.35165498944</v>
+        <v>27632.35165498946</v>
       </c>
       <c r="H4" t="n">
-        <v>27632.35165498944</v>
+        <v>27632.35165498947</v>
       </c>
       <c r="I4" t="n">
-        <v>27632.35165498945</v>
+        <v>27632.35165498946</v>
       </c>
       <c r="J4" t="n">
         <v>27632.35165498946</v>
@@ -26447,19 +26447,19 @@
         <v>27632.35165498946</v>
       </c>
       <c r="L4" t="n">
+        <v>27632.35165498945</v>
+      </c>
+      <c r="M4" t="n">
+        <v>27632.35165498945</v>
+      </c>
+      <c r="N4" t="n">
         <v>27632.35165498946</v>
       </c>
-      <c r="M4" t="n">
-        <v>27632.35165498947</v>
-      </c>
-      <c r="N4" t="n">
-        <v>27632.35165498947</v>
-      </c>
       <c r="O4" t="n">
-        <v>27632.35165498946</v>
+        <v>27632.35165498945</v>
       </c>
       <c r="P4" t="n">
-        <v>27632.35165498946</v>
+        <v>27632.35165498945</v>
       </c>
     </row>
     <row r="5">
@@ -26481,10 +26481,10 @@
         <v>42919.10753132479</v>
       </c>
       <c r="F5" t="n">
-        <v>42919.10753132481</v>
+        <v>42919.10753132479</v>
       </c>
       <c r="G5" t="n">
-        <v>42919.1075313248</v>
+        <v>42919.10753132479</v>
       </c>
       <c r="H5" t="n">
         <v>42919.10753132479</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102297.1642028362</v>
+        <v>102275.4810827445</v>
       </c>
       <c r="C6" t="n">
-        <v>139060.6924456253</v>
+        <v>139039.0093255342</v>
       </c>
       <c r="D6" t="n">
-        <v>136765.3604247872</v>
+        <v>136743.6806868219</v>
       </c>
       <c r="E6" t="n">
-        <v>-300576.5937943354</v>
+        <v>-301184.403164889</v>
       </c>
       <c r="F6" t="n">
-        <v>217869.6226349131</v>
+        <v>217261.8132643594</v>
       </c>
       <c r="G6" t="n">
-        <v>217869.622634913</v>
+        <v>217261.8132643593</v>
       </c>
       <c r="H6" t="n">
-        <v>217869.622634913</v>
+        <v>217261.8132643594</v>
       </c>
       <c r="I6" t="n">
-        <v>217869.622634913</v>
+        <v>217261.8132643594</v>
       </c>
       <c r="J6" t="n">
-        <v>217869.6226349131</v>
+        <v>217261.8132643593</v>
       </c>
       <c r="K6" t="n">
-        <v>217869.622634913</v>
+        <v>217261.8132643593</v>
       </c>
       <c r="L6" t="n">
-        <v>217869.622634913</v>
+        <v>217261.8132643594</v>
       </c>
       <c r="M6" t="n">
-        <v>85803.96192390483</v>
+        <v>85196.15255335129</v>
       </c>
       <c r="N6" t="n">
-        <v>217869.6226349131</v>
+        <v>217261.8132643593</v>
       </c>
       <c r="O6" t="n">
-        <v>217869.6226349131</v>
+        <v>217261.8132643593</v>
       </c>
       <c r="P6" t="n">
-        <v>217869.622634913</v>
+        <v>217261.8132643593</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>42.37941378408804</v>
       </c>
       <c r="E3" t="n">
-        <v>490.7407022504557</v>
+        <v>490.7407022504555</v>
       </c>
       <c r="F3" t="n">
-        <v>490.7407022504557</v>
+        <v>490.7407022504556</v>
       </c>
       <c r="G3" t="n">
-        <v>490.7407022504557</v>
+        <v>490.7407022504556</v>
       </c>
       <c r="H3" t="n">
-        <v>490.7407022504557</v>
+        <v>490.7407022504555</v>
       </c>
       <c r="I3" t="n">
         <v>490.7407022504556</v>
@@ -26801,10 +26801,10 @@
         <v>529.950003655672</v>
       </c>
       <c r="F4" t="n">
-        <v>529.9500036556723</v>
+        <v>529.950003655672</v>
       </c>
       <c r="G4" t="n">
-        <v>529.9500036556722</v>
+        <v>529.950003655672</v>
       </c>
       <c r="H4" t="n">
         <v>529.950003655672</v>
@@ -26968,7 +26968,7 @@
         <v>4.22765758861398</v>
       </c>
       <c r="E3" t="n">
-        <v>448.3612884663677</v>
+        <v>448.3612884663675</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>529.9500036556722</v>
+        <v>529.950003655672</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.9500036556722</v>
+        <v>529.950003655672</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.9500036556722</v>
+        <v>529.950003655672</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27411,7 +27411,7 @@
         <v>14.10849161526705</v>
       </c>
       <c r="M2" t="n">
-        <v>10.50014909015127</v>
+        <v>10.50014909015128</v>
       </c>
       <c r="N2" t="n">
         <v>9.912735448118685</v>
@@ -27478,19 +27478,19 @@
         <v>52.04978355868677</v>
       </c>
       <c r="I3" t="n">
-        <v>13.34699725816536</v>
+        <v>13.34699725816537</v>
       </c>
       <c r="J3" t="n">
         <v>12.85802961440214</v>
       </c>
       <c r="K3" t="n">
-        <v>9.147977155514765</v>
+        <v>9.147977155514766</v>
       </c>
       <c r="L3" t="n">
         <v>4.697136804258392</v>
       </c>
       <c r="M3" t="n">
-        <v>2.304073385794617</v>
+        <v>2.30407338579462</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27499,7 +27499,7 @@
         <v>3.647188605845983</v>
       </c>
       <c r="P3" t="n">
-        <v>6.10054723088008</v>
+        <v>6.100547230880082</v>
       </c>
       <c r="Q3" t="n">
         <v>12.27186175772305</v>
@@ -27648,7 +27648,7 @@
         <v>14.10849161526705</v>
       </c>
       <c r="M5" t="n">
-        <v>10.50014909015128</v>
+        <v>10.50014909015127</v>
       </c>
       <c r="N5" t="n">
         <v>9.912735448118685</v>
@@ -27715,19 +27715,19 @@
         <v>52.04978355868677</v>
       </c>
       <c r="I6" t="n">
-        <v>13.34699725816537</v>
+        <v>13.34699725816536</v>
       </c>
       <c r="J6" t="n">
         <v>12.85802961440214</v>
       </c>
       <c r="K6" t="n">
-        <v>9.147977155514766</v>
+        <v>9.147977155514765</v>
       </c>
       <c r="L6" t="n">
         <v>4.697136804258392</v>
       </c>
       <c r="M6" t="n">
-        <v>2.30407338579462</v>
+        <v>2.304073385794617</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -27736,7 +27736,7 @@
         <v>3.647188605845983</v>
       </c>
       <c r="P6" t="n">
-        <v>6.100547230880082</v>
+        <v>6.10054723088008</v>
       </c>
       <c r="Q6" t="n">
         <v>12.27186175772305</v>
@@ -31047,16 +31047,16 @@
         <v>1.570740394520195</v>
       </c>
       <c r="I2" t="n">
-        <v>5.912947058195032</v>
+        <v>5.912947058195031</v>
       </c>
       <c r="J2" t="n">
-        <v>13.01741755736932</v>
+        <v>13.01741755736931</v>
       </c>
       <c r="K2" t="n">
         <v>19.50973450110566</v>
       </c>
       <c r="L2" t="n">
-        <v>24.20355081735588</v>
+        <v>24.20355081735587</v>
       </c>
       <c r="M2" t="n">
         <v>26.93111380928054</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08206226804309516</v>
+        <v>0.08206226804309515</v>
       </c>
       <c r="H3" t="n">
         <v>0.7925487466267348</v>
@@ -31129,7 +31129,7 @@
         <v>2.825389491834636</v>
       </c>
       <c r="J3" t="n">
-        <v>7.753084718931198</v>
+        <v>7.753084718931197</v>
       </c>
       <c r="K3" t="n">
         <v>13.25125667781857</v>
@@ -31156,13 +31156,13 @@
         <v>5.095059063237085</v>
       </c>
       <c r="S3" t="n">
-        <v>1.524270636677666</v>
+        <v>1.524270636677665</v>
       </c>
       <c r="T3" t="n">
         <v>0.3307685277701948</v>
       </c>
       <c r="U3" t="n">
-        <v>0.005398833423887841</v>
+        <v>0.00539883342388784</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>0.06879824887708436</v>
       </c>
       <c r="H4" t="n">
-        <v>0.611678976379896</v>
+        <v>0.6116789763798959</v>
       </c>
       <c r="I4" t="n">
         <v>2.068950975321774</v>
       </c>
       <c r="J4" t="n">
-        <v>4.864036195609865</v>
+        <v>4.864036195609864</v>
       </c>
       <c r="K4" t="n">
-        <v>7.993105642264891</v>
+        <v>7.99310564226489</v>
       </c>
       <c r="L4" t="n">
         <v>10.22842329214398</v>
@@ -31223,22 +31223,22 @@
         <v>10.52800839407238</v>
       </c>
       <c r="O4" t="n">
-        <v>9.724319759462801</v>
+        <v>9.7243197594628</v>
       </c>
       <c r="P4" t="n">
-        <v>8.320835482370274</v>
+        <v>8.320835482370272</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.760915185516583</v>
+        <v>5.760915185516582</v>
       </c>
       <c r="R4" t="n">
-        <v>3.093419444964175</v>
+        <v>3.093419444964174</v>
       </c>
       <c r="S4" t="n">
         <v>1.198965846339733</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2939561542929968</v>
+        <v>0.2939561542929967</v>
       </c>
       <c r="U4" t="n">
         <v>0.003752631756931878</v>
@@ -31284,16 +31284,16 @@
         <v>1.570740394520195</v>
       </c>
       <c r="I5" t="n">
-        <v>5.912947058195031</v>
+        <v>5.912947058195032</v>
       </c>
       <c r="J5" t="n">
-        <v>13.01741755736931</v>
+        <v>13.01741755736932</v>
       </c>
       <c r="K5" t="n">
         <v>19.50973450110566</v>
       </c>
       <c r="L5" t="n">
-        <v>24.20355081735587</v>
+        <v>24.20355081735588</v>
       </c>
       <c r="M5" t="n">
         <v>26.93111380928054</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08206226804309515</v>
+        <v>0.08206226804309516</v>
       </c>
       <c r="H6" t="n">
         <v>0.7925487466267348</v>
@@ -31366,7 +31366,7 @@
         <v>2.825389491834636</v>
       </c>
       <c r="J6" t="n">
-        <v>7.753084718931197</v>
+        <v>7.753084718931198</v>
       </c>
       <c r="K6" t="n">
         <v>13.25125667781857</v>
@@ -31393,13 +31393,13 @@
         <v>5.095059063237085</v>
       </c>
       <c r="S6" t="n">
-        <v>1.524270636677665</v>
+        <v>1.524270636677666</v>
       </c>
       <c r="T6" t="n">
         <v>0.3307685277701948</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00539883342388784</v>
+        <v>0.005398833423887841</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>0.06879824887708436</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6116789763798959</v>
+        <v>0.611678976379896</v>
       </c>
       <c r="I7" t="n">
         <v>2.068950975321774</v>
       </c>
       <c r="J7" t="n">
-        <v>4.864036195609864</v>
+        <v>4.864036195609865</v>
       </c>
       <c r="K7" t="n">
-        <v>7.99310564226489</v>
+        <v>7.993105642264891</v>
       </c>
       <c r="L7" t="n">
         <v>10.22842329214398</v>
@@ -31460,22 +31460,22 @@
         <v>10.52800839407238</v>
       </c>
       <c r="O7" t="n">
-        <v>9.7243197594628</v>
+        <v>9.724319759462801</v>
       </c>
       <c r="P7" t="n">
-        <v>8.320835482370272</v>
+        <v>8.320835482370274</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.760915185516582</v>
+        <v>5.760915185516583</v>
       </c>
       <c r="R7" t="n">
-        <v>3.093419444964174</v>
+        <v>3.093419444964175</v>
       </c>
       <c r="S7" t="n">
         <v>1.198965846339733</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2939561542929967</v>
+        <v>0.2939561542929968</v>
       </c>
       <c r="U7" t="n">
         <v>0.003752631756931878</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.972826943720424</v>
+        <v>1.972826943720423</v>
       </c>
       <c r="H11" t="n">
         <v>20.20421393737679</v>
       </c>
       <c r="I11" t="n">
-        <v>76.0574107477817</v>
+        <v>76.05741074778167</v>
       </c>
       <c r="J11" t="n">
         <v>167.4412208145914</v>
       </c>
       <c r="K11" t="n">
-        <v>250.950985342277</v>
+        <v>250.9509853422769</v>
       </c>
       <c r="L11" t="n">
-        <v>311.326887921161</v>
+        <v>311.3268879211608</v>
       </c>
       <c r="M11" t="n">
-        <v>346.4111490815491</v>
+        <v>346.4111490815489</v>
       </c>
       <c r="N11" t="n">
-        <v>352.0164436353948</v>
+        <v>352.0164436353946</v>
       </c>
       <c r="O11" t="n">
-        <v>332.3991457137748</v>
+        <v>332.3991457137746</v>
       </c>
       <c r="P11" t="n">
-        <v>283.6949805406768</v>
+        <v>283.6949805406766</v>
       </c>
       <c r="Q11" t="n">
-        <v>213.043115618689</v>
+        <v>213.0431156186889</v>
       </c>
       <c r="R11" t="n">
-        <v>123.9255905034782</v>
+        <v>123.9255905034781</v>
       </c>
       <c r="S11" t="n">
-        <v>44.9557939800292</v>
+        <v>44.95579398002918</v>
       </c>
       <c r="T11" t="n">
-        <v>8.63604994613616</v>
+        <v>8.636049946136154</v>
       </c>
       <c r="U11" t="n">
         <v>0.1578261554976338</v>
@@ -31837,43 +31837,43 @@
         <v>10.19444364486324</v>
       </c>
       <c r="I12" t="n">
-        <v>36.34258974213282</v>
+        <v>36.34258974213279</v>
       </c>
       <c r="J12" t="n">
-        <v>99.72684402997236</v>
+        <v>99.7268440299723</v>
       </c>
       <c r="K12" t="n">
         <v>170.4490607052361</v>
       </c>
       <c r="L12" t="n">
-        <v>229.1897968387624</v>
+        <v>229.1897968387623</v>
       </c>
       <c r="M12" t="n">
-        <v>267.4536827264984</v>
+        <v>267.4536827264982</v>
       </c>
       <c r="N12" t="n">
-        <v>274.5323858749979</v>
+        <v>274.5323858749978</v>
       </c>
       <c r="O12" t="n">
-        <v>251.1434988205705</v>
+        <v>251.1434988205704</v>
       </c>
       <c r="P12" t="n">
-        <v>201.564799005475</v>
+        <v>201.5647990054749</v>
       </c>
       <c r="Q12" t="n">
         <v>134.7407301726157</v>
       </c>
       <c r="R12" t="n">
-        <v>65.53703189676844</v>
+        <v>65.53703189676841</v>
       </c>
       <c r="S12" t="n">
-        <v>19.60647994368565</v>
+        <v>19.60647994368564</v>
       </c>
       <c r="T12" t="n">
-        <v>4.25462929592612</v>
+        <v>4.254629295926118</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06944443899770603</v>
+        <v>0.069444438997706</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,28 +31910,28 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8849422499598382</v>
+        <v>0.8849422499598377</v>
       </c>
       <c r="H13" t="n">
-        <v>7.867941095097476</v>
+        <v>7.867941095097472</v>
       </c>
       <c r="I13" t="n">
-        <v>26.61262693515587</v>
+        <v>26.61262693515586</v>
       </c>
       <c r="J13" t="n">
-        <v>62.56541707216055</v>
+        <v>62.56541707216052</v>
       </c>
       <c r="K13" t="n">
-        <v>102.814199586243</v>
+        <v>102.8141995862429</v>
       </c>
       <c r="L13" t="n">
-        <v>131.5667777803927</v>
+        <v>131.5667777803926</v>
       </c>
       <c r="M13" t="n">
-        <v>138.7187201459772</v>
+        <v>138.7187201459771</v>
       </c>
       <c r="N13" t="n">
-        <v>135.4202990324906</v>
+        <v>135.4202990324905</v>
       </c>
       <c r="O13" t="n">
         <v>125.0825645670506</v>
@@ -31940,19 +31940,19 @@
         <v>107.0297426678698</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.10184603981881</v>
+        <v>74.10184603981878</v>
       </c>
       <c r="R13" t="n">
-        <v>39.79022153001235</v>
+        <v>39.79022153001233</v>
       </c>
       <c r="S13" t="n">
-        <v>15.42212993793645</v>
+        <v>15.42212993793644</v>
       </c>
       <c r="T13" t="n">
-        <v>3.781116886192035</v>
+        <v>3.781116886192033</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04826957727053668</v>
+        <v>0.04826957727053666</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,22 +31995,22 @@
         <v>20.20421393737679</v>
       </c>
       <c r="I14" t="n">
-        <v>76.0574107477817</v>
+        <v>76.05741074778167</v>
       </c>
       <c r="J14" t="n">
         <v>167.4412208145914</v>
       </c>
       <c r="K14" t="n">
-        <v>250.950985342277</v>
+        <v>250.9509853422769</v>
       </c>
       <c r="L14" t="n">
-        <v>311.326887921161</v>
+        <v>311.3268879211609</v>
       </c>
       <c r="M14" t="n">
         <v>346.411149081549</v>
       </c>
       <c r="N14" t="n">
-        <v>352.0164436353948</v>
+        <v>352.0164436353946</v>
       </c>
       <c r="O14" t="n">
         <v>332.3991457137747</v>
@@ -32025,10 +32025,10 @@
         <v>123.9255905034781</v>
       </c>
       <c r="S14" t="n">
-        <v>44.95579398002919</v>
+        <v>44.95579398002918</v>
       </c>
       <c r="T14" t="n">
-        <v>8.636049946136158</v>
+        <v>8.636049946136156</v>
       </c>
       <c r="U14" t="n">
         <v>0.1578261554976338</v>
@@ -32074,25 +32074,25 @@
         <v>10.19444364486324</v>
       </c>
       <c r="I15" t="n">
-        <v>36.34258974213281</v>
+        <v>36.3425897421328</v>
       </c>
       <c r="J15" t="n">
-        <v>99.72684402997234</v>
+        <v>99.72684402997231</v>
       </c>
       <c r="K15" t="n">
         <v>170.4490607052361</v>
       </c>
       <c r="L15" t="n">
-        <v>229.1897968387624</v>
+        <v>229.1897968387623</v>
       </c>
       <c r="M15" t="n">
-        <v>267.4536827264983</v>
+        <v>267.4536827264982</v>
       </c>
       <c r="N15" t="n">
-        <v>274.5323858749979</v>
+        <v>274.5323858749978</v>
       </c>
       <c r="O15" t="n">
-        <v>251.1434988205705</v>
+        <v>251.1434988205704</v>
       </c>
       <c r="P15" t="n">
         <v>201.5647990054749</v>
@@ -32101,16 +32101,16 @@
         <v>134.7407301726157</v>
       </c>
       <c r="R15" t="n">
-        <v>65.53703189676843</v>
+        <v>65.53703189676841</v>
       </c>
       <c r="S15" t="n">
-        <v>19.60647994368565</v>
+        <v>19.60647994368564</v>
       </c>
       <c r="T15" t="n">
-        <v>4.254629295926119</v>
+        <v>4.254629295926118</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06944443899770603</v>
+        <v>0.06944443899770601</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8849422499598381</v>
+        <v>0.8849422499598378</v>
       </c>
       <c r="H16" t="n">
-        <v>7.867941095097475</v>
+        <v>7.867941095097473</v>
       </c>
       <c r="I16" t="n">
         <v>26.61262693515586</v>
       </c>
       <c r="J16" t="n">
-        <v>62.56541707216054</v>
+        <v>62.56541707216053</v>
       </c>
       <c r="K16" t="n">
-        <v>102.814199586243</v>
+        <v>102.8141995862429</v>
       </c>
       <c r="L16" t="n">
-        <v>131.5667777803927</v>
+        <v>131.5667777803926</v>
       </c>
       <c r="M16" t="n">
         <v>138.7187201459771</v>
@@ -32177,19 +32177,19 @@
         <v>107.0297426678698</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.10184603981881</v>
+        <v>74.1018460398188</v>
       </c>
       <c r="R16" t="n">
-        <v>39.79022153001235</v>
+        <v>39.79022153001233</v>
       </c>
       <c r="S16" t="n">
         <v>15.42212993793644</v>
       </c>
       <c r="T16" t="n">
-        <v>3.781116886192034</v>
+        <v>3.781116886192033</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04826957727053668</v>
+        <v>0.04826957727053666</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,22 +32232,22 @@
         <v>20.20421393737679</v>
       </c>
       <c r="I17" t="n">
-        <v>76.0574107477817</v>
+        <v>76.05741074778167</v>
       </c>
       <c r="J17" t="n">
         <v>167.4412208145914</v>
       </c>
       <c r="K17" t="n">
-        <v>250.950985342277</v>
+        <v>250.9509853422769</v>
       </c>
       <c r="L17" t="n">
-        <v>311.326887921161</v>
+        <v>311.3268879211609</v>
       </c>
       <c r="M17" t="n">
         <v>346.411149081549</v>
       </c>
       <c r="N17" t="n">
-        <v>352.0164436353948</v>
+        <v>352.0164436353946</v>
       </c>
       <c r="O17" t="n">
         <v>332.3991457137747</v>
@@ -32262,10 +32262,10 @@
         <v>123.9255905034781</v>
       </c>
       <c r="S17" t="n">
-        <v>44.95579398002919</v>
+        <v>44.95579398002918</v>
       </c>
       <c r="T17" t="n">
-        <v>8.636049946136158</v>
+        <v>8.636049946136156</v>
       </c>
       <c r="U17" t="n">
         <v>0.1578261554976338</v>
@@ -32311,25 +32311,25 @@
         <v>10.19444364486324</v>
       </c>
       <c r="I18" t="n">
-        <v>36.34258974213281</v>
+        <v>36.3425897421328</v>
       </c>
       <c r="J18" t="n">
-        <v>99.72684402997234</v>
+        <v>99.72684402997231</v>
       </c>
       <c r="K18" t="n">
         <v>170.4490607052361</v>
       </c>
       <c r="L18" t="n">
-        <v>229.1897968387624</v>
+        <v>229.1897968387623</v>
       </c>
       <c r="M18" t="n">
-        <v>267.4536827264983</v>
+        <v>267.4536827264982</v>
       </c>
       <c r="N18" t="n">
-        <v>274.5323858749979</v>
+        <v>274.5323858749978</v>
       </c>
       <c r="O18" t="n">
-        <v>251.1434988205705</v>
+        <v>251.1434988205704</v>
       </c>
       <c r="P18" t="n">
         <v>201.5647990054749</v>
@@ -32338,16 +32338,16 @@
         <v>134.7407301726157</v>
       </c>
       <c r="R18" t="n">
-        <v>65.53703189676843</v>
+        <v>65.53703189676841</v>
       </c>
       <c r="S18" t="n">
-        <v>19.60647994368565</v>
+        <v>19.60647994368564</v>
       </c>
       <c r="T18" t="n">
-        <v>4.254629295926119</v>
+        <v>4.254629295926118</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06944443899770603</v>
+        <v>0.06944443899770601</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8849422499598381</v>
+        <v>0.8849422499598378</v>
       </c>
       <c r="H19" t="n">
-        <v>7.867941095097475</v>
+        <v>7.867941095097473</v>
       </c>
       <c r="I19" t="n">
         <v>26.61262693515586</v>
       </c>
       <c r="J19" t="n">
-        <v>62.56541707216054</v>
+        <v>62.56541707216053</v>
       </c>
       <c r="K19" t="n">
-        <v>102.814199586243</v>
+        <v>102.8141995862429</v>
       </c>
       <c r="L19" t="n">
-        <v>131.5667777803927</v>
+        <v>131.5667777803926</v>
       </c>
       <c r="M19" t="n">
         <v>138.7187201459771</v>
@@ -32414,19 +32414,19 @@
         <v>107.0297426678698</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.10184603981881</v>
+        <v>74.1018460398188</v>
       </c>
       <c r="R19" t="n">
-        <v>39.79022153001235</v>
+        <v>39.79022153001233</v>
       </c>
       <c r="S19" t="n">
         <v>15.42212993793644</v>
       </c>
       <c r="T19" t="n">
-        <v>3.781116886192034</v>
+        <v>3.781116886192033</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04826957727053668</v>
+        <v>0.04826957727053666</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,40 +32469,40 @@
         <v>20.20421393737679</v>
       </c>
       <c r="I20" t="n">
-        <v>76.0574107477817</v>
+        <v>76.05741074778167</v>
       </c>
       <c r="J20" t="n">
         <v>167.4412208145914</v>
       </c>
       <c r="K20" t="n">
-        <v>250.950985342277</v>
+        <v>250.9509853422769</v>
       </c>
       <c r="L20" t="n">
-        <v>311.326887921161</v>
+        <v>311.3268879211608</v>
       </c>
       <c r="M20" t="n">
-        <v>346.411149081549</v>
+        <v>346.4111490815489</v>
       </c>
       <c r="N20" t="n">
-        <v>352.0164436353948</v>
+        <v>352.0164436353946</v>
       </c>
       <c r="O20" t="n">
-        <v>332.3991457137747</v>
+        <v>332.3991457137746</v>
       </c>
       <c r="P20" t="n">
-        <v>283.6949805406767</v>
+        <v>283.6949805406766</v>
       </c>
       <c r="Q20" t="n">
-        <v>213.043115618689</v>
+        <v>213.0431156186889</v>
       </c>
       <c r="R20" t="n">
         <v>123.9255905034781</v>
       </c>
       <c r="S20" t="n">
-        <v>44.95579398002919</v>
+        <v>44.95579398002918</v>
       </c>
       <c r="T20" t="n">
-        <v>8.636049946136158</v>
+        <v>8.636049946136154</v>
       </c>
       <c r="U20" t="n">
         <v>0.1578261554976338</v>
@@ -32548,25 +32548,25 @@
         <v>10.19444364486324</v>
       </c>
       <c r="I21" t="n">
-        <v>36.34258974213281</v>
+        <v>36.34258974213279</v>
       </c>
       <c r="J21" t="n">
-        <v>99.72684402997234</v>
+        <v>99.7268440299723</v>
       </c>
       <c r="K21" t="n">
         <v>170.4490607052361</v>
       </c>
       <c r="L21" t="n">
-        <v>229.1897968387624</v>
+        <v>229.1897968387623</v>
       </c>
       <c r="M21" t="n">
-        <v>267.4536827264983</v>
+        <v>267.4536827264982</v>
       </c>
       <c r="N21" t="n">
-        <v>274.5323858749979</v>
+        <v>274.5323858749978</v>
       </c>
       <c r="O21" t="n">
-        <v>251.1434988205705</v>
+        <v>251.1434988205704</v>
       </c>
       <c r="P21" t="n">
         <v>201.5647990054749</v>
@@ -32575,16 +32575,16 @@
         <v>134.7407301726157</v>
       </c>
       <c r="R21" t="n">
-        <v>65.53703189676843</v>
+        <v>65.53703189676841</v>
       </c>
       <c r="S21" t="n">
-        <v>19.60647994368565</v>
+        <v>19.60647994368564</v>
       </c>
       <c r="T21" t="n">
-        <v>4.254629295926119</v>
+        <v>4.254629295926118</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06944443899770603</v>
+        <v>0.069444438997706</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,28 +32621,28 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8849422499598381</v>
+        <v>0.8849422499598377</v>
       </c>
       <c r="H22" t="n">
-        <v>7.867941095097475</v>
+        <v>7.867941095097472</v>
       </c>
       <c r="I22" t="n">
         <v>26.61262693515586</v>
       </c>
       <c r="J22" t="n">
-        <v>62.56541707216054</v>
+        <v>62.56541707216052</v>
       </c>
       <c r="K22" t="n">
-        <v>102.814199586243</v>
+        <v>102.8141995862429</v>
       </c>
       <c r="L22" t="n">
-        <v>131.5667777803927</v>
+        <v>131.5667777803926</v>
       </c>
       <c r="M22" t="n">
         <v>138.7187201459771</v>
       </c>
       <c r="N22" t="n">
-        <v>135.4202990324906</v>
+        <v>135.4202990324905</v>
       </c>
       <c r="O22" t="n">
         <v>125.0825645670506</v>
@@ -32651,19 +32651,19 @@
         <v>107.0297426678698</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.10184603981881</v>
+        <v>74.10184603981878</v>
       </c>
       <c r="R22" t="n">
-        <v>39.79022153001235</v>
+        <v>39.79022153001233</v>
       </c>
       <c r="S22" t="n">
         <v>15.42212993793644</v>
       </c>
       <c r="T22" t="n">
-        <v>3.781116886192034</v>
+        <v>3.781116886192033</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04826957727053668</v>
+        <v>0.04826957727053666</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,22 +32706,22 @@
         <v>20.20421393737679</v>
       </c>
       <c r="I23" t="n">
-        <v>76.05741074778169</v>
+        <v>76.05741074778167</v>
       </c>
       <c r="J23" t="n">
         <v>167.4412208145914</v>
       </c>
       <c r="K23" t="n">
-        <v>250.950985342277</v>
+        <v>250.9509853422769</v>
       </c>
       <c r="L23" t="n">
-        <v>311.326887921161</v>
+        <v>311.3268879211609</v>
       </c>
       <c r="M23" t="n">
         <v>346.411149081549</v>
       </c>
       <c r="N23" t="n">
-        <v>352.0164436353947</v>
+        <v>352.0164436353946</v>
       </c>
       <c r="O23" t="n">
         <v>332.3991457137747</v>
@@ -32788,7 +32788,7 @@
         <v>36.3425897421328</v>
       </c>
       <c r="J24" t="n">
-        <v>99.72684402997233</v>
+        <v>99.72684402997231</v>
       </c>
       <c r="K24" t="n">
         <v>170.4490607052361</v>
@@ -32797,7 +32797,7 @@
         <v>229.1897968387623</v>
       </c>
       <c r="M24" t="n">
-        <v>267.4536827264983</v>
+        <v>267.4536827264982</v>
       </c>
       <c r="N24" t="n">
         <v>274.5323858749978</v>
@@ -32812,13 +32812,13 @@
         <v>134.7407301726157</v>
       </c>
       <c r="R24" t="n">
-        <v>65.53703189676843</v>
+        <v>65.53703189676841</v>
       </c>
       <c r="S24" t="n">
-        <v>19.60647994368565</v>
+        <v>19.60647994368564</v>
       </c>
       <c r="T24" t="n">
-        <v>4.254629295926119</v>
+        <v>4.254629295926118</v>
       </c>
       <c r="U24" t="n">
         <v>0.06944443899770601</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8849422499598379</v>
+        <v>0.8849422499598378</v>
       </c>
       <c r="H25" t="n">
-        <v>7.867941095097474</v>
+        <v>7.867941095097473</v>
       </c>
       <c r="I25" t="n">
         <v>26.61262693515586</v>
       </c>
       <c r="J25" t="n">
-        <v>62.56541707216054</v>
+        <v>62.56541707216053</v>
       </c>
       <c r="K25" t="n">
-        <v>102.814199586243</v>
+        <v>102.8141995862429</v>
       </c>
       <c r="L25" t="n">
         <v>131.5667777803926</v>
@@ -32891,16 +32891,16 @@
         <v>74.1018460398188</v>
       </c>
       <c r="R25" t="n">
-        <v>39.79022153001234</v>
+        <v>39.79022153001233</v>
       </c>
       <c r="S25" t="n">
         <v>15.42212993793644</v>
       </c>
       <c r="T25" t="n">
-        <v>3.781116886192034</v>
+        <v>3.781116886192033</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04826957727053667</v>
+        <v>0.04826957727053666</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34380,13 +34380,13 @@
         <v>346.411149081549</v>
       </c>
       <c r="N44" t="n">
-        <v>352.0164436353948</v>
+        <v>352.016443635395</v>
       </c>
       <c r="O44" t="n">
         <v>332.3991457137747</v>
       </c>
       <c r="P44" t="n">
-        <v>283.6949805406769</v>
+        <v>283.6949805406767</v>
       </c>
       <c r="Q44" t="n">
         <v>213.043115618689</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.5095082038182</v>
+        <v>41.50950820381817</v>
       </c>
       <c r="J11" t="n">
         <v>138.0212613290049</v>
       </c>
       <c r="K11" t="n">
-        <v>215.1863845474677</v>
+        <v>215.1863845474676</v>
       </c>
       <c r="L11" t="n">
-        <v>273.0148454885381</v>
+        <v>273.0148454885379</v>
       </c>
       <c r="M11" t="n">
-        <v>308.9798861821172</v>
+        <v>308.9798861821171</v>
       </c>
       <c r="N11" t="n">
-        <v>314.7368208009487</v>
+        <v>314.7368208009486</v>
       </c>
       <c r="O11" t="n">
-        <v>295.0081863577507</v>
+        <v>295.0081863577505</v>
       </c>
       <c r="P11" t="n">
-        <v>246.1196187304455</v>
+        <v>246.1196187304453</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.918441014091</v>
+        <v>176.9184410140909</v>
       </c>
       <c r="R11" t="n">
-        <v>88.8929406086817</v>
+        <v>88.89294060868164</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.17020299213281</v>
+        <v>20.17020299213279</v>
       </c>
       <c r="J12" t="n">
-        <v>79.11572969663902</v>
+        <v>356.9979709365273</v>
       </c>
       <c r="K12" t="n">
-        <v>148.0498268719028</v>
+        <v>148.0498268719027</v>
       </c>
       <c r="L12" t="n">
-        <v>206.6747101245328</v>
+        <v>206.6747101245327</v>
       </c>
       <c r="M12" t="n">
-        <v>522.2391434540581</v>
+        <v>244.3569022141703</v>
       </c>
       <c r="N12" t="n">
-        <v>253.1893576614562</v>
+        <v>253.1893576614561</v>
       </c>
       <c r="O12" t="n">
-        <v>227.9716090983483</v>
+        <v>227.9716090983482</v>
       </c>
       <c r="P12" t="n">
-        <v>179.7939578006463</v>
+        <v>179.7939578006462</v>
       </c>
       <c r="Q12" t="n">
         <v>111.9936918836372</v>
       </c>
       <c r="R12" t="n">
-        <v>41.86411250262429</v>
+        <v>41.86411250262427</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.92866108825868</v>
+        <v>120.6374657834313</v>
       </c>
       <c r="K13" t="n">
-        <v>331.6299583800179</v>
+        <v>81.84954513353094</v>
       </c>
       <c r="L13" t="n">
-        <v>489.8388194919288</v>
+        <v>164.229498224836</v>
       </c>
       <c r="M13" t="n">
         <v>529.950003655672</v>
       </c>
       <c r="N13" t="n">
-        <v>468.3258482934425</v>
+        <v>114.6713980568901</v>
       </c>
       <c r="O13" t="n">
-        <v>102.5833770686262</v>
+        <v>484.100876364791</v>
       </c>
       <c r="P13" t="n">
-        <v>84.64894200988336</v>
+        <v>400.5643001647395</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.48228327503386</v>
+        <v>202.3848058789723</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.5095082038182</v>
+        <v>41.50950820381817</v>
       </c>
       <c r="J14" t="n">
         <v>138.0212613290049</v>
@@ -35655,10 +35655,10 @@
         <v>273.014845488538</v>
       </c>
       <c r="M14" t="n">
-        <v>308.9798861821172</v>
+        <v>308.9798861821171</v>
       </c>
       <c r="N14" t="n">
-        <v>314.7368208009487</v>
+        <v>314.7368208009486</v>
       </c>
       <c r="O14" t="n">
         <v>295.0081863577506</v>
@@ -35667,10 +35667,10 @@
         <v>246.1196187304454</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.918441014091</v>
+        <v>176.9184410140909</v>
       </c>
       <c r="R14" t="n">
-        <v>88.89294060868167</v>
+        <v>88.89294060868164</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.17020299213281</v>
+        <v>20.1702029921328</v>
       </c>
       <c r="J15" t="n">
-        <v>79.11572969663901</v>
+        <v>79.11572969663898</v>
       </c>
       <c r="K15" t="n">
-        <v>148.0498268719028</v>
+        <v>148.0498268719027</v>
       </c>
       <c r="L15" t="n">
-        <v>484.5569513644205</v>
+        <v>206.6747101245327</v>
       </c>
       <c r="M15" t="n">
         <v>244.3569022141703</v>
       </c>
       <c r="N15" t="n">
-        <v>253.1893576614562</v>
+        <v>253.1893576614561</v>
       </c>
       <c r="O15" t="n">
         <v>227.9716090983482</v>
       </c>
       <c r="P15" t="n">
-        <v>179.7939578006463</v>
+        <v>179.7939578006462</v>
       </c>
       <c r="Q15" t="n">
-        <v>111.9936918836372</v>
+        <v>389.8759331235254</v>
       </c>
       <c r="R15" t="n">
-        <v>41.86411250262428</v>
+        <v>41.86411250262427</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35810,22 +35810,22 @@
         <v>331.6299583800179</v>
       </c>
       <c r="L16" t="n">
-        <v>109.6480178846915</v>
+        <v>489.8388194919288</v>
       </c>
       <c r="M16" t="n">
-        <v>529.9500036556723</v>
+        <v>529.950003655672</v>
       </c>
       <c r="N16" t="n">
-        <v>516.7248554729308</v>
+        <v>389.61704359827</v>
       </c>
       <c r="O16" t="n">
-        <v>202.7638441972645</v>
+        <v>102.5833770686261</v>
       </c>
       <c r="P16" t="n">
-        <v>84.64894200988334</v>
+        <v>84.64894200988331</v>
       </c>
       <c r="Q16" t="n">
-        <v>202.3848058789723</v>
+        <v>49.48228327503385</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.5095082038182</v>
+        <v>41.50950820381817</v>
       </c>
       <c r="J17" t="n">
         <v>138.0212613290049</v>
@@ -35892,10 +35892,10 @@
         <v>273.014845488538</v>
       </c>
       <c r="M17" t="n">
-        <v>308.9798861821172</v>
+        <v>308.9798861821171</v>
       </c>
       <c r="N17" t="n">
-        <v>314.7368208009487</v>
+        <v>314.7368208009486</v>
       </c>
       <c r="O17" t="n">
         <v>295.0081863577506</v>
@@ -35904,10 +35904,10 @@
         <v>246.1196187304454</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.918441014091</v>
+        <v>176.9184410140909</v>
       </c>
       <c r="R17" t="n">
-        <v>88.89294060868167</v>
+        <v>88.89294060868164</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.17020299213281</v>
+        <v>43.86445131982153</v>
       </c>
       <c r="J18" t="n">
-        <v>79.11572969663901</v>
+        <v>79.11572969663898</v>
       </c>
       <c r="K18" t="n">
-        <v>148.0498268719028</v>
+        <v>148.0498268719027</v>
       </c>
       <c r="L18" t="n">
-        <v>484.5569513644205</v>
+        <v>206.6747101245327</v>
       </c>
       <c r="M18" t="n">
         <v>244.3569022141703</v>
       </c>
       <c r="N18" t="n">
-        <v>253.1893576614562</v>
+        <v>253.1893576614561</v>
       </c>
       <c r="O18" t="n">
         <v>227.9716090983482</v>
       </c>
       <c r="P18" t="n">
-        <v>179.7939578006463</v>
+        <v>433.9819507128458</v>
       </c>
       <c r="Q18" t="n">
         <v>111.9936918836372</v>
       </c>
       <c r="R18" t="n">
-        <v>41.86411250262428</v>
+        <v>41.86411250262427</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>120.6374657834313</v>
+        <v>41.92866108825866</v>
       </c>
       <c r="K19" t="n">
-        <v>81.84954513353098</v>
+        <v>331.6299583800179</v>
       </c>
       <c r="L19" t="n">
-        <v>109.6480178846915</v>
+        <v>489.8388194919288</v>
       </c>
       <c r="M19" t="n">
-        <v>529.9500036556722</v>
+        <v>116.1432802544913</v>
       </c>
       <c r="N19" t="n">
-        <v>169.2528783970348</v>
+        <v>516.7248554729308</v>
       </c>
       <c r="O19" t="n">
-        <v>484.1008763647911</v>
+        <v>152.0757351354625</v>
       </c>
       <c r="P19" t="n">
         <v>400.5643001647395</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.3848058789723</v>
+        <v>49.48228327503385</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.5095082038182</v>
+        <v>41.50950820381817</v>
       </c>
       <c r="J20" t="n">
         <v>138.0212613290049</v>
@@ -36126,25 +36126,25 @@
         <v>215.1863845474676</v>
       </c>
       <c r="L20" t="n">
-        <v>273.014845488538</v>
+        <v>273.0148454885379</v>
       </c>
       <c r="M20" t="n">
-        <v>308.9798861821172</v>
+        <v>308.9798861821171</v>
       </c>
       <c r="N20" t="n">
-        <v>314.7368208009487</v>
+        <v>314.7368208009486</v>
       </c>
       <c r="O20" t="n">
-        <v>295.0081863577506</v>
+        <v>295.0081863577505</v>
       </c>
       <c r="P20" t="n">
-        <v>246.1196187304454</v>
+        <v>246.1196187304453</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.918441014091</v>
+        <v>176.9184410140909</v>
       </c>
       <c r="R20" t="n">
-        <v>88.89294060868167</v>
+        <v>88.89294060868164</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.17020299213281</v>
+        <v>43.86445131982153</v>
       </c>
       <c r="J21" t="n">
-        <v>79.11572969663901</v>
+        <v>333.3037226088386</v>
       </c>
       <c r="K21" t="n">
-        <v>148.0498268719028</v>
+        <v>148.0498268719027</v>
       </c>
       <c r="L21" t="n">
-        <v>206.6747101245328</v>
+        <v>206.6747101245327</v>
       </c>
       <c r="M21" t="n">
         <v>244.3569022141703</v>
       </c>
       <c r="N21" t="n">
-        <v>253.1893576614562</v>
+        <v>253.1893576614561</v>
       </c>
       <c r="O21" t="n">
         <v>227.9716090983482</v>
       </c>
       <c r="P21" t="n">
-        <v>457.676199040534</v>
+        <v>179.7939578006462</v>
       </c>
       <c r="Q21" t="n">
         <v>111.9936918836372</v>
       </c>
       <c r="R21" t="n">
-        <v>41.86411250262428</v>
+        <v>41.86411250262427</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,19 +36281,19 @@
         <v>120.6374657834313</v>
       </c>
       <c r="K22" t="n">
-        <v>81.84954513353098</v>
+        <v>331.6299583800179</v>
       </c>
       <c r="L22" t="n">
-        <v>489.8388194919288</v>
+        <v>295.966584274514</v>
       </c>
       <c r="M22" t="n">
-        <v>204.340682388579</v>
+        <v>529.950003655672</v>
       </c>
       <c r="N22" t="n">
-        <v>114.6713980568902</v>
+        <v>114.6713980568901</v>
       </c>
       <c r="O22" t="n">
-        <v>484.1008763647911</v>
+        <v>102.5833770686261</v>
       </c>
       <c r="P22" t="n">
         <v>400.5643001647395</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.50950820381819</v>
+        <v>41.50950820381817</v>
       </c>
       <c r="J23" t="n">
         <v>138.0212613290049</v>
@@ -36366,10 +36366,10 @@
         <v>273.014845488538</v>
       </c>
       <c r="M23" t="n">
-        <v>308.9798861821172</v>
+        <v>308.9798861821171</v>
       </c>
       <c r="N23" t="n">
-        <v>314.7368208009487</v>
+        <v>314.7368208009486</v>
       </c>
       <c r="O23" t="n">
         <v>295.0081863577506</v>
@@ -36381,7 +36381,7 @@
         <v>176.9184410140909</v>
       </c>
       <c r="R23" t="n">
-        <v>88.89294060868167</v>
+        <v>88.89294060868164</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>20.1702029921328</v>
       </c>
       <c r="J24" t="n">
-        <v>79.11572969663899</v>
+        <v>79.11572969663898</v>
       </c>
       <c r="K24" t="n">
-        <v>148.0498268719028</v>
+        <v>425.9320681117909</v>
       </c>
       <c r="L24" t="n">
-        <v>206.6747101245328</v>
+        <v>206.6747101245327</v>
       </c>
       <c r="M24" t="n">
         <v>244.3569022141703</v>
       </c>
       <c r="N24" t="n">
-        <v>253.1893576614562</v>
+        <v>253.1893576614561</v>
       </c>
       <c r="O24" t="n">
         <v>227.9716090983482</v>
@@ -36457,10 +36457,10 @@
         <v>179.7939578006462</v>
       </c>
       <c r="Q24" t="n">
-        <v>389.8759331235252</v>
+        <v>111.9936918836372</v>
       </c>
       <c r="R24" t="n">
-        <v>41.86411250262428</v>
+        <v>41.86411250262427</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,19 +36518,19 @@
         <v>41.92866108825866</v>
       </c>
       <c r="K25" t="n">
-        <v>81.84954513353097</v>
+        <v>81.84954513353095</v>
       </c>
       <c r="L25" t="n">
-        <v>109.6480178846914</v>
+        <v>222.4023448001327</v>
       </c>
       <c r="M25" t="n">
-        <v>261.1868312749483</v>
+        <v>529.950003655672</v>
       </c>
       <c r="N25" t="n">
         <v>516.7248554729308</v>
       </c>
       <c r="O25" t="n">
-        <v>484.1008763647911</v>
+        <v>102.5833770686261</v>
       </c>
       <c r="P25" t="n">
         <v>400.5643001647395</v>
@@ -36603,7 +36603,7 @@
         <v>273.014845488538</v>
       </c>
       <c r="M26" t="n">
-        <v>308.9798861821171</v>
+        <v>308.9798861821172</v>
       </c>
       <c r="N26" t="n">
         <v>314.7368208009486</v>
@@ -36676,7 +36676,7 @@
         <v>79.11572969663898</v>
       </c>
       <c r="K27" t="n">
-        <v>425.9320681117909</v>
+        <v>148.0498268719027</v>
       </c>
       <c r="L27" t="n">
         <v>206.6747101245327</v>
@@ -36694,7 +36694,7 @@
         <v>179.7939578006462</v>
       </c>
       <c r="Q27" t="n">
-        <v>111.9936918836372</v>
+        <v>389.8759331235254</v>
       </c>
       <c r="R27" t="n">
         <v>41.86411250262427</v>
@@ -36755,25 +36755,25 @@
         <v>41.92866108825866</v>
       </c>
       <c r="K28" t="n">
-        <v>81.84954513353095</v>
+        <v>331.6299583800179</v>
       </c>
       <c r="L28" t="n">
-        <v>254.6915689051487</v>
+        <v>109.6480178846914</v>
       </c>
       <c r="M28" t="n">
-        <v>116.1432802544913</v>
+        <v>529.950003655672</v>
       </c>
       <c r="N28" t="n">
         <v>516.7248554729308</v>
       </c>
       <c r="O28" t="n">
-        <v>484.100876364791</v>
+        <v>118.4598133415191</v>
       </c>
       <c r="P28" t="n">
         <v>400.5643001647395</v>
       </c>
       <c r="Q28" t="n">
-        <v>202.3848058789723</v>
+        <v>49.48228327503385</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>41.50950820381817</v>
       </c>
       <c r="J29" t="n">
-        <v>138.0212613290049</v>
+        <v>138.0212613290051</v>
       </c>
       <c r="K29" t="n">
         <v>215.1863845474676</v>
@@ -36843,7 +36843,7 @@
         <v>308.9798861821171</v>
       </c>
       <c r="N29" t="n">
-        <v>314.7368208009487</v>
+        <v>314.7368208009486</v>
       </c>
       <c r="O29" t="n">
         <v>295.0081863577506</v>
@@ -36916,7 +36916,7 @@
         <v>148.0498268719027</v>
       </c>
       <c r="L30" t="n">
-        <v>206.6747101245327</v>
+        <v>484.5569513644209</v>
       </c>
       <c r="M30" t="n">
         <v>244.3569022141703</v>
@@ -36928,7 +36928,7 @@
         <v>227.9716090983482</v>
       </c>
       <c r="P30" t="n">
-        <v>457.6761990405345</v>
+        <v>179.7939578006462</v>
       </c>
       <c r="Q30" t="n">
         <v>111.9936918836372</v>
@@ -36992,25 +36992,25 @@
         <v>41.92866108825866</v>
       </c>
       <c r="K31" t="n">
-        <v>228.2197938429156</v>
+        <v>81.84954513353095</v>
       </c>
       <c r="L31" t="n">
-        <v>489.8388194919288</v>
+        <v>309.7027262627626</v>
       </c>
       <c r="M31" t="n">
-        <v>116.1432802544913</v>
+        <v>529.950003655672</v>
       </c>
       <c r="N31" t="n">
         <v>516.7248554729308</v>
       </c>
       <c r="O31" t="n">
-        <v>102.5833770686261</v>
+        <v>484.100876364791</v>
       </c>
       <c r="P31" t="n">
-        <v>400.5643001647395</v>
+        <v>84.64894200988331</v>
       </c>
       <c r="Q31" t="n">
-        <v>202.3848058789723</v>
+        <v>49.48228327503385</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>138.0212613290049</v>
       </c>
       <c r="K32" t="n">
-        <v>215.1863845474678</v>
+        <v>215.1863845474676</v>
       </c>
       <c r="L32" t="n">
         <v>273.014845488538</v>
@@ -37156,7 +37156,7 @@
         <v>206.6747101245327</v>
       </c>
       <c r="M33" t="n">
-        <v>244.3569022141703</v>
+        <v>522.2391434540583</v>
       </c>
       <c r="N33" t="n">
         <v>253.1893576614561</v>
@@ -37165,13 +37165,13 @@
         <v>227.9716090983482</v>
       </c>
       <c r="P33" t="n">
-        <v>351.155491682044</v>
+        <v>179.7939578006462</v>
       </c>
       <c r="Q33" t="n">
         <v>111.9936918836372</v>
       </c>
       <c r="R33" t="n">
-        <v>148.384819861115</v>
+        <v>41.86411250262427</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>41.92866108825866</v>
+        <v>120.6374657834313</v>
       </c>
       <c r="K34" t="n">
-        <v>81.84954513353095</v>
+        <v>331.6299583800179</v>
       </c>
       <c r="L34" t="n">
         <v>109.6480178846914</v>
       </c>
       <c r="M34" t="n">
-        <v>529.950003655672</v>
+        <v>116.1432802544913</v>
       </c>
       <c r="N34" t="n">
-        <v>516.7248554729308</v>
+        <v>486.1817111556671</v>
       </c>
       <c r="O34" t="n">
         <v>484.100876364791</v>
       </c>
       <c r="P34" t="n">
-        <v>131.8011277840157</v>
+        <v>400.5643001647395</v>
       </c>
       <c r="Q34" t="n">
-        <v>202.3848058789723</v>
+        <v>49.48228327503385</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>20.1702029921328</v>
       </c>
       <c r="J36" t="n">
-        <v>79.11572969663898</v>
+        <v>356.9979709365271</v>
       </c>
       <c r="K36" t="n">
         <v>148.0498268719027</v>
@@ -37405,10 +37405,10 @@
         <v>179.7939578006462</v>
       </c>
       <c r="Q36" t="n">
-        <v>283.3552257650349</v>
+        <v>111.9936918836372</v>
       </c>
       <c r="R36" t="n">
-        <v>148.384819861115</v>
+        <v>41.86411250262427</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>41.92866108825866</v>
       </c>
       <c r="K37" t="n">
-        <v>81.84954513353095</v>
+        <v>331.6299583800179</v>
       </c>
       <c r="L37" t="n">
-        <v>242.9383029200086</v>
+        <v>489.8388194919288</v>
       </c>
       <c r="M37" t="n">
-        <v>529.950003655672</v>
+        <v>116.1432802544913</v>
       </c>
       <c r="N37" t="n">
-        <v>114.6713980568902</v>
+        <v>516.7248554729308</v>
       </c>
       <c r="O37" t="n">
-        <v>484.100876364791</v>
+        <v>315.08857068638</v>
       </c>
       <c r="P37" t="n">
-        <v>400.5643001647395</v>
+        <v>84.64894200988331</v>
       </c>
       <c r="Q37" t="n">
         <v>202.3848058789723</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.1702029921328</v>
+        <v>43.86445131982153</v>
       </c>
       <c r="J39" t="n">
         <v>79.11572969663898</v>
@@ -37636,10 +37636,10 @@
         <v>253.1893576614561</v>
       </c>
       <c r="O39" t="n">
-        <v>227.9716090983482</v>
+        <v>482.1596020105476</v>
       </c>
       <c r="P39" t="n">
-        <v>457.6761990405345</v>
+        <v>179.7939578006462</v>
       </c>
       <c r="Q39" t="n">
         <v>111.9936918836372</v>
@@ -37703,16 +37703,16 @@
         <v>41.92866108825866</v>
       </c>
       <c r="K40" t="n">
-        <v>129.0017309076636</v>
+        <v>150.8643867164667</v>
       </c>
       <c r="L40" t="n">
-        <v>109.6480178846914</v>
+        <v>489.8388194919288</v>
       </c>
       <c r="M40" t="n">
         <v>529.950003655672</v>
       </c>
       <c r="N40" t="n">
-        <v>516.7248554729308</v>
+        <v>114.6713980568902</v>
       </c>
       <c r="O40" t="n">
         <v>484.100876364791</v>
@@ -37858,7 +37858,7 @@
         <v>20.17020299213281</v>
       </c>
       <c r="J42" t="n">
-        <v>79.11572969663901</v>
+        <v>356.9979709365268</v>
       </c>
       <c r="K42" t="n">
         <v>148.0498268719028</v>
@@ -37879,10 +37879,10 @@
         <v>179.7939578006463</v>
       </c>
       <c r="Q42" t="n">
-        <v>283.3552257650344</v>
+        <v>111.9936918836372</v>
       </c>
       <c r="R42" t="n">
-        <v>148.384819861115</v>
+        <v>41.86411250262428</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37943,22 +37943,22 @@
         <v>331.6299583800179</v>
       </c>
       <c r="L43" t="n">
-        <v>109.6480178846915</v>
+        <v>489.8388194919288</v>
       </c>
       <c r="M43" t="n">
-        <v>529.9500036556722</v>
+        <v>116.1432802544913</v>
       </c>
       <c r="N43" t="n">
-        <v>516.7248554729308</v>
+        <v>184.6997142436025</v>
       </c>
       <c r="O43" t="n">
-        <v>281.472648892437</v>
+        <v>484.1008763647911</v>
       </c>
       <c r="P43" t="n">
-        <v>84.64894200988334</v>
+        <v>400.5643001647395</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.3848058789723</v>
+        <v>49.48228327503386</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38028,13 +38028,13 @@
         <v>308.9798861821172</v>
       </c>
       <c r="N44" t="n">
-        <v>314.7368208009487</v>
+        <v>314.736820800949</v>
       </c>
       <c r="O44" t="n">
         <v>295.0081863577506</v>
       </c>
       <c r="P44" t="n">
-        <v>246.1196187304456</v>
+        <v>246.1196187304454</v>
       </c>
       <c r="Q44" t="n">
         <v>176.918441014091</v>
@@ -38101,7 +38101,7 @@
         <v>148.0498268719028</v>
       </c>
       <c r="L45" t="n">
-        <v>206.6747101245328</v>
+        <v>484.5569513644205</v>
       </c>
       <c r="M45" t="n">
         <v>244.3569022141703</v>
@@ -38116,7 +38116,7 @@
         <v>179.7939578006463</v>
       </c>
       <c r="Q45" t="n">
-        <v>389.8759331235252</v>
+        <v>111.9936918836372</v>
       </c>
       <c r="R45" t="n">
         <v>41.86411250262428</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>41.92866108825868</v>
+        <v>120.6374657834313</v>
       </c>
       <c r="K46" t="n">
-        <v>81.84954513353098</v>
+        <v>331.6299583800179</v>
       </c>
       <c r="L46" t="n">
-        <v>309.7027262627627</v>
+        <v>489.8388194919288</v>
       </c>
       <c r="M46" t="n">
-        <v>529.9500036556722</v>
+        <v>116.1432802544913</v>
       </c>
       <c r="N46" t="n">
-        <v>516.7248554729308</v>
+        <v>334.6058862406564</v>
       </c>
       <c r="O46" t="n">
-        <v>484.1008763647911</v>
+        <v>102.5833770686262</v>
       </c>
       <c r="P46" t="n">
-        <v>84.64894200988334</v>
+        <v>400.5643001647395</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.48228327503386</v>
+        <v>202.3848058789723</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
